--- a/inferences/places-1644.xlsx
+++ b/inferences/places-1644.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -560,7 +560,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>no wikidata.Jen-houo, hoje: Renhe, 仁和县, Historical county name. coordinate: 30.448897N, 120.307504E</t>
+          <t>Jen-houo, hoje: Renhe, 仁和县, Historical county name. coordinate: 30.448897N, 120.307504E</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>in the Chinese translation it is recognized as “遂州”, which is wrong, both phonetically and geographically. In Dehergne(1957), it is noted as "衢州".K'iu-tcheou, hoje:Quzhou, 衢州, , in the Chinese translation it is recognized as “遂州”, which is wrong, both phonetically and geographically. In Dehergne(1957), it is noted as "衢州".</t>
+          <t>K'iu-tcheou, hoje:Quzhou, 衢州, , in the Chinese translation it is recognized as “遂州”, which is wrong, both phonetically and geographically. In Dehergne(1957), it is noted as "衢州".</t>
         </is>
       </c>
     </row>
@@ -695,8 +695,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>"""
-               The place name in the book Dehergne(1973) is "Kaoshan", and in the Chinese translation it is recognized as “高山”. But this place cannot be found. According to Dehergne(1957), it probably shoud be "Kashan 嘉善", which means in the 1973 book, this place is wrongly spelled by mistake."""Kia-chan, hoje: Jiashan, 嘉善, Kaosham</t>
+          <t>Kia-chan, hoje: Jiashan, 嘉善, Kaosham</t>
         </is>
       </c>
     </row>
@@ -1119,14 +1118,10 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Q11146687</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>bourg de Hungtang, hoje: Hongtang, 洪塘, , in the Chinese translation it is written as “宏塘”, and in Dehergne(1957) it is "洪堂". But actually this place is written with the characters "洪塘".</t>
-        </is>
-      </c>
+          <t>No wikidata</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1340,7 +1335,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>et la baie d'Amoy entre Changchow et Chüanchow v. 1616Zhangzhou, hoje:Zhangzhou, 漳州, Changchow (Lungki)</t>
+          <t>Zhangzhou, hoje:Zhangzhou, 漳州, Changchow (Lungki)</t>
         </is>
       </c>
     </row>
@@ -1367,7 +1362,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>"""in the Chinese translation it is recognized as “章浦”（漳浦）, which is wrong. It should be "后坂", because "Aupua" corresponds to the pronunciation of "后坂" in the southern Fujian dialect, and in Dehergne(1957), it has another transcription "Heupuen", which prooves it coordinate：24.50213852506329N, 117.6917197408656E"""hoje: Houban, 后坂, (@geonames:1977135)Au-poa,Heupuen</t>
+          <t>hoje: Houban, 后坂, (@geonames:1977135)Au-poa,Heupuen</t>
         </is>
       </c>
     </row>
@@ -2173,7 +2168,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve">bourg de Cabaran hoje:Yilan, 葛子兰(宜兰), @wikidata:Q680842 Now it is called 宜兰Ki-long, Jilong, hoje:Keelung, 基隆, </t>
+          <t xml:space="preserve">Ki-long, Jilong, hoje:Keelung, 基隆, </t>
         </is>
       </c>
     </row>
@@ -2223,7 +2218,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>"""In the Chinese translation it is recognized as “塔巴里”, in Dehergne(1957) it is noted as "大包里", which cannot be found in the map. As Dehergne(1957) said it is at "Peninsule de Masu, à 1 lieue nord-ouest de San Salvador (社寮)", coordinate of Peninsule Masu: 25.201218764354735N, 121.68618375811317E"""hoje：大包里</t>
+          <t>hoje：大包里</t>
         </is>
       </c>
     </row>
@@ -2300,7 +2295,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t xml:space="preserve">(12 ou 13 chrétientés en 1641)hoje:Henan, 河南, </t>
+          <t xml:space="preserve">hoje:Henan, 河南, </t>
         </is>
       </c>
     </row>
@@ -2381,7 +2376,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Today it is named 商丘 Shanqiu. Wikidata code is that of ShangqiuKoei-té,Kueite, hoje: Guide, 归德, </t>
+          <t xml:space="preserve">Koei-té,Kueite, hoje: Guide, 归德, </t>
         </is>
       </c>
     </row>
@@ -2404,7 +2399,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Former province of China, corresponding to modern-day Hubei and Hunan provincesHuguang?, Hou-Quang, hoje:Huguang,湖广, </t>
+          <t xml:space="preserve">Huguang?, Hou-Quang, hoje:Huguang,湖广, </t>
         </is>
       </c>
     </row>
@@ -2593,7 +2588,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t xml:space="preserve">In the Chinese translation it is recogniazed as “蕲水”, which is also a place at that area, but according to the phonetic, it should be "蕲州", which is also noted in Dehergne(1957).do Hupei?, K'i-tcheou,Chichou, hoje: Qizhou, 蕲州, </t>
+          <t xml:space="preserve">do Hupei?, K'i-tcheou,Chichou, hoje: Qizhou, 蕲州, </t>
         </is>
       </c>
     </row>
@@ -2922,11 +2917,7 @@
           <t>No wikidata</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>In Dehergne(1957, p51): "Chrétienté au Wuyüan (Ou-yuen) hien, à la frontière du Kiangsi, et se nomme Tungmen, à l'ouest du Wuyüan, route de Kingtehchen." in the Chinese translation it is recogniazed as “东门村”, but it seems that there is no 东门村 in this area.</t>
-        </is>
-      </c>
+      <c r="E94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3406,7 +3397,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t xml:space="preserve">松江府 is an ancient superior prefecture of chinaSong-kiang,Sungching, hoje: Songjiang, 松江, </t>
+          <t xml:space="preserve">Song-kiang,Sungching, hoje: Songjiang, 松江, </t>
         </is>
       </c>
     </row>
@@ -3595,7 +3586,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t xml:space="preserve">nombreux bourgsChang-hai, hoje: Shanghai, 上海, </t>
+          <t xml:space="preserve">Chang-hai, hoje: Shanghai, 上海, </t>
         </is>
       </c>
     </row>
@@ -3649,7 +3640,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t xml:space="preserve">In the Chinses translation it is written as “七堡”, which should be “七宝”Tsi-pao,Chipao, hoje: Qibao, 七宝, </t>
+          <t xml:space="preserve">Tsi-pao,Chipao, hoje: Qibao, 七宝, </t>
         </is>
       </c>
     </row>
@@ -4096,7 +4087,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>, In the Chinese translation, Lappa is recognized as “浪白”, acutuallythe Portugese people called “湾仔 Wanzai” as Lappa. 湾仔 is now a place in Zhuhai.Lapa,Wantchai, hoje: Wanzai, 湾仔, Lappa (Wantchai)</t>
+          <t>Lapa,Wantchai, hoje: Wanzai, 湾仔, Lappa (Wantchai)</t>
         </is>
       </c>
     </row>
@@ -4231,7 +4222,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Qiongzhou is the ancient name of Hainan Island. Wikidata code same as Hainan Island.K'iong-tcheou,Chiungchou, hoje: Qiongzhou, 琼州, Kiungchow (île de Hainan)</t>
+          <t>K'iong-tcheou,Chiungchou, hoje: Qiongzhou, 琼州, Kiungchow (île de Hainan)</t>
         </is>
       </c>
     </row>
@@ -4447,7 +4438,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>où première église bâtie hors de Macao, en 1603Cinçun, hoje: Jingcun, 靖村, coordinate:24.840448198893206N, 113.54394322209676E. In the original book (Dehergne, 1973), it is written as "Tsintsun" (without g), which is wrongly spelled. In Dehergne(1973), it is written as Tsingtsun, with the Chinese name 靖村 noted. It is "à une heure et demie de marche au nord-ouest de Siuchow." In the Chinese traslation, it is recognized as "青村", which is wrong.</t>
+          <t>Cinçun, hoje: Jingcun, 靖村, coordinate:24.840448198893206N, 113.54394322209676E. In the original book (Dehergne, 1973), it is written as "Tsintsun" (without g), which is wrongly spelled. In Dehergne(1973), it is written as Tsingtsun, with the Chinese name 靖村 noted. It is "à une heure et demie de marche au nord-ouest de Siuchow." In the Chinese traslation, it is recognized as "青村", which is wrong.</t>
         </is>
       </c>
     </row>
@@ -4474,7 +4465,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>tous bourgs évangélisés avant 1603Vançun, hoje: Huangcun, 黄村, coordinate: 24.900778941203768N, 113.60398607001083E Dehergne(1957): "à une heure de chemin au nord de Shiuchow".</t>
+          <t>Vançun, hoje: Huangcun, 黄村, coordinate: 24.900778941203768N, 113.60398607001083E Dehergne(1957): "à une heure de chemin au nord de Shiuchow".</t>
         </is>
       </c>
     </row>
@@ -4501,7 +4492,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>tous bourgs évangélisés avant 1603Hwanghsiaping, hoje: Vankaxen, 黄下坪？, In the Chinese translation, it is recognized as "黄下坪". Dehergne(1957):"Hwanghsiaping (" Vankaxen ") à 15 li à l'ouest de Shiuchow." But it cannot be found in the map.</t>
+          <t>Hwanghsiaping, hoje: Vankaxen, 黄下坪？, In the Chinese translation, it is recognized as "黄下坪". Dehergne(1957):"Hwanghsiaping (" Vankaxen ") à 15 li à l'ouest de Shiuchow." But it cannot be found in the map.</t>
         </is>
       </c>
     </row>
@@ -4528,7 +4519,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>tous bourgs évangélisés avant 1603Mochi, hoje: Madigang, 麻地岗, In the Chinese translation, it is recognized as “末岗”, but in Dehergne(1957), it is noted as “麻地岗”. coordinate: 24.68899887552694N, 113.57599418283718E</t>
+          <t>Mochi, hoje: Madigang, 麻地岗, In the Chinese translation, it is recognized as “末岗”, but in Dehergne(1957), it is noted as “麻地岗”. coordinate: 24.68899887552694N, 113.57599418283718E</t>
         </is>
       </c>
     </row>
@@ -4555,7 +4546,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>tous bourgs évangélisés avant 1603Yang-hiang, hoje: 杨姓村</t>
+          <t>Yang-hiang, hoje: 杨姓村</t>
         </is>
       </c>
     </row>
@@ -4605,7 +4596,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t xml:space="preserve">nadaKoei-Tcheou, hoje: Guizhou, 贵州, </t>
+          <t xml:space="preserve">Koei-Tcheou, hoje: Guizhou, 贵州, </t>
         </is>
       </c>
     </row>
@@ -4651,7 +4642,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>En 1637 16 chrétientés et 14 oratoires autour de Pékinhoje: 北京, Peking (Shuntien) (1598), 1601</t>
+          <t>hoje: 北京, Peking (Shuntien) (1598), 1601</t>
         </is>
       </c>
     </row>
@@ -4786,12 +4777,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t xml:space="preserve">"""Chengting fou is Zhengding Fu （正定府） in Hebei province
-                     with the wikidata code Q11123399. However, as a historical
-                     administrative division, its wikidata code does not include
-                     its geographical information,  we  use the wikidata code
-                     of Zhengdign County (正定县) Q197678, because this is where
-                     it is in the present day."""Tcheng-ting, hoje: Zhengding, 正定, </t>
+          <t xml:space="preserve">Tcheng-ting, hoje: Zhengding, 正定, </t>
         </is>
       </c>
     </row>
@@ -5429,11 +5415,7 @@
           <t>No wikidata</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>In Dehergne(1957), there is no "Kwanchang". In the Chinese translation, it is recognized as “官昌”，but cannot be found in the map.</t>
-        </is>
-      </c>
+      <c r="E188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -5670,7 +5652,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>?Dehergne(1957)did not give the Chinese name of Peichingtien.In the Chinese translation, it is recognized as “北辛店村”，but the pronunciation dose not match. In addition, the “北辛店村”of Shandong is far from Dongchang.</t>
+          <t>Dehergne(1957)did not give the Chinese name of Peichingtien.In the Chinese translation, it is recognized as “北辛店村”，but the pronunciation dose not match. In addition, the “北辛店村”of Shandong is far from Dongchang.</t>
         </is>
       </c>
     </row>
@@ -5828,7 +5810,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Kiao-tou and Tungyüanfang are the same place. The Chinese translation recognized it as “贾都”, which might be wrong, as “贾都” cannot be found.Kiao-tou (ou Tungyiianfang)</t>
+          <t>Kiao-tou (ou Tungyiianfang)</t>
         </is>
       </c>
     </row>
@@ -5988,11 +5970,7 @@
           <t>No wikidata</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>In Dehergne(1957), it is noted as "小塞子", and in the Chinese translation, it is recognized as "小寨子村"。 But both places are not “ près de Cheng” as said in Dehergne(1957).</t>
-        </is>
-      </c>
+      <c r="E209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -6094,7 +6072,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mienchow is an historical administrative division, now it is located in the city of Mianyang.The Wikidata code also refers to that of Mianyang: Q426130Mien tcheou, hoje: Mianzhou, 绵州, hoje:  </t>
+          <t xml:space="preserve">Mien tcheou, hoje: Mianzhou, 绵州, hoje:  </t>
         </is>
       </c>
     </row>

--- a/inferences/places-1644.xlsx
+++ b/inferences/places-1644.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E216"/>
+  <dimension ref="A1:F146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>comment</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -479,8 +484,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Tche-kiang, hoje:Zhejiang, 浙江,  @dehergne:396</t>
-        </is>
+          <t>Zhejiang， CHEKIANG (actuel ZHEJIANG)</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="3">
@@ -506,8 +514,11 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hang-tcheou, hoje: Hangzhou, 杭州, </t>
-        </is>
+          <t xml:space="preserve">Hangzhou, </t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="4">
@@ -523,18 +534,21 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fuyang</t>
+          <t>Haining</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Q1011103</t>
+          <t>Q286266</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fou-yang, hoje:Fuyang, 富阳, </t>
-        </is>
+          <t xml:space="preserve"> 海宁</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="5">
@@ -545,23 +559,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hangchou</t>
+          <t>Kashing</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jenho</t>
+          <t>Kashing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>No wikidata</t>
+          <t>Q58178</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Jen-houo, hoje: Renhe, 仁和县, Historical county name. coordinate: 30.448897N, 120.307504E</t>
-        </is>
+          <t xml:space="preserve">Jiaxing, </t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="6">
@@ -572,23 +589,26 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chüchow</t>
+          <t>Kinhwa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Chüchow</t>
+          <t>Kinhwa</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Q58235</t>
+          <t>Q58210</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>K'iu-tcheou, hoje:Quzhou, 衢州, , in the Chinese translation it is recognized as “遂州”, which is wrong, both phonetically and geographically. In Dehergne(1957), it is noted as "衢州".</t>
-        </is>
+          <t xml:space="preserve">Jinhua, </t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="7">
@@ -599,23 +619,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Huchow</t>
+          <t>Kinhwa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Huchow</t>
+          <t>Lanchi</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Q42664</t>
+          <t>Q1023793</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hou-tcheou, hoje: Huzhou, 湖州, </t>
-        </is>
+          <t xml:space="preserve">Lanxi, </t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="8">
@@ -626,23 +649,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Huchow</t>
+          <t>Ningpo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Tehtsing</t>
+          <t>Ningpo</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Q1191987</t>
+          <t>Q42780</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>"Tehtsing du Huchow, Té-ts'ing;Teching, hoje: Deqing, 德清, "</t>
-        </is>
+          <t xml:space="preserve">Ningbo, </t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="9">
@@ -653,401 +679,442 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kashing</t>
+          <t>Ningpo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Kashing</t>
+          <t>Yenchow</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Q58178</t>
+          <t>Q1334217</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kia-hing, hoje:Jiaxing, 嘉兴, </t>
-        </is>
+          <t xml:space="preserve">Yinzhou, 鄞州 </t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Chekiang</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Kashing</t>
-        </is>
-      </c>
+          <t>Fukien</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Kashan</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Q1361347</t>
+          <t>Q41705</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Kia-chan, hoje: Jiashan, 嘉善, Kaosham</t>
-        </is>
+          <t xml:space="preserve">Fujian, </t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Chekiang</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Kashing</t>
+          <t>Foochow</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Tangsi</t>
+          <t>Foochow</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Q10931032</t>
+          <t>Q68481</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>"T'ang-k'i Tangchi", hoje:Tangqi, 塘栖 , in the Chinese translation it is recognized as “塘拪”</t>
-        </is>
+          <t xml:space="preserve">Fuzhou, </t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Chekiang</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Kashing</t>
+          <t>Foochow</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Tsungteh</t>
+          <t>Lienkong</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Q10270889</t>
+          <t>Q204827</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Tch'ong-té,hoje: Chongde, 崇德县 , Historical county name, located in the present Chongfu 崇福镇Tsungteh (Shihmen)</t>
-        </is>
+          <t xml:space="preserve">Lianjiang, </t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chekiang</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Kashing</t>
+          <t>Changchow</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Tungsiang</t>
+          <t>Changchow</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Q1204548</t>
+          <t>Q68814</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">T'ong-hiang, hoje:Tongxiang, 桐乡, </t>
-        </is>
+          <t xml:space="preserve">Zhangzhou, </t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chekiang</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Kinhwa</t>
+          <t>Chüanchow</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Kinhwa</t>
+          <t>Chüanchow</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Q58210</t>
+          <t>Q68695</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kin-hoa,Chinhua,hoje:Jinhua, 金华, </t>
-        </is>
+          <t xml:space="preserve">Quanzhou, </t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chekiang</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Kinhwa</t>
+          <t>Chüanchow</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Lanchi</t>
+          <t>Amoy</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Q1023793</t>
+          <t>Q68744</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">(qui deviendra em 1656 R des OP)Lan-k'i， hoje:Lanxi, 兰溪, </t>
-        </is>
+          <t xml:space="preserve">Xiamen, </t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chekiang</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Kinhwa</t>
+          <t>Funing</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Tungyang</t>
+          <t>Funing</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Q1023774</t>
+          <t>Q241877</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tong-yang, hoje:Dongyang, 东阳, </t>
-        </is>
+          <t xml:space="preserve">(alors tcheou indépendant)Funing, </t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chekiang</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ningpo</t>
+          <t>Funing</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Ningpo</t>
+          <t>Fuan</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Q42780</t>
+          <t>Q1374581</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">(v. 1540?)Ning-pouo,hoje: Ningbo, 宁波, </t>
-        </is>
+          <t xml:space="preserve">Fu'an, </t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Chekiang</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ningpo</t>
+          <t>Hinghwa</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Wuking</t>
+          <t>Hinghwa</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>No wikidata</t>
+          <t>Q17498990</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Uchim,Ou kin, hoje:? Dehergne(1957) did not give its Chinese name. In the Chinese translation it is recognized as “五井村”, which cannot be found.bourg de Wuking</t>
-        </is>
+          <t xml:space="preserve">Xinghua, </t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chekiang</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ningpo</t>
+          <t>Kienning</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Tinghai</t>
+          <t>Kienning</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Q1226419</t>
+          <t>Q11065314</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">T'ing-hai, hoje:Dinghai, 定海, </t>
-        </is>
+          <t xml:space="preserve">Kienning fou, Jianning, </t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chekiang</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ningpo</t>
+          <t>Kienning</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Tzeki</t>
+          <t>Pucheng</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Q706161</t>
+          <t>Q1338032</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ts'e-k'i,Tsuchi, hoje:Cixi, 慈溪, </t>
-        </is>
+          <t xml:space="preserve">浦城 </t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Chekiang</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Shaoshing</t>
+          <t>Shaowu</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Shaoshing</t>
+          <t>Shaowu</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Q706161</t>
+          <t>Q1025451</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chao-hing,Shaohsing, hoje:Shaoxing, 绍兴, </t>
-        </is>
+          <t xml:space="preserve">Shaowu, </t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chekiang</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Wenchow</t>
+          <t>Shaowu</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Wenchow</t>
+          <t>Kienning hien</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Q42635</t>
+          <t>Q781559</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wen-tcheou, hoje:Wenzhou, 温州, </t>
-        </is>
+          <t xml:space="preserve">Jianning Xian, </t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Chekiang</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Wenchow</t>
+          <t>Tingchow</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Juian</t>
+          <t>Tingchow</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Q713357</t>
+          <t>Q7808213</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Joei-ngan, hoje:Rui'an, 瑞安, </t>
-        </is>
+          <t xml:space="preserve">Tingzhou, </t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="24">
@@ -1056,21 +1123,28 @@
           <t>Fukien</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Tingchow</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Shanghang</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Q41705</t>
+          <t>Q1338218</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Fou-kien, hoje: Fujian, 福建,  @dehergne:397</t>
-        </is>
+          <t xml:space="preserve">上杭 </t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="25">
@@ -1081,23 +1155,26 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Foochow</t>
+          <t>Yenping</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Foochow</t>
+          <t>Yenping</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Q68481</t>
+          <t>Q1337959</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fuzhou，Fou-tcheou,Fuchou，hoje: Fuzhou, 福州, </t>
-        </is>
+          <t xml:space="preserve">Yanping, </t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="26">
@@ -1108,1808 +1185,2028 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Foochow</t>
+          <t>Yenping</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Hungtang</t>
+          <t>Tsianglo</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>No wikidata</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+          <t>Q1301199</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jiangle 将乐</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1644</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fukien</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Foochow</t>
-        </is>
-      </c>
+          <t>Honan</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Machang</t>
+          <t>Honan</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Q17033140</t>
+          <t>Q43684</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>hoje: Machang, 马厂村, , The Wikidata code is that of "马厂街基督教堂" Machang Street Christian Churchbourg de Machang, Machang</t>
-        </is>
+          <t xml:space="preserve">Henan, </t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Honan</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Foochow</t>
+          <t>Kaifeng</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Diongloh</t>
+          <t>Kaifeng</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Q766619</t>
+          <t>Q208471</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>hoje: Changle,长乐, Diongloh (Tch'ang-lo), Tch'ang-lo,Changlo</t>
-        </is>
+          <t xml:space="preserve">Kaifeng, </t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Honan</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Foochow</t>
+          <t>Kweiteh</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Hoihow</t>
+          <t>Kweiteh</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>No wikidata</t>
+          <t>Q404817</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Haikeubourg de Hoihow (Haikeu)</t>
-        </is>
+          <t xml:space="preserve">Guide, </t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Fukien</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Foochow</t>
-        </is>
-      </c>
+          <t>Hukwang</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Niensien</t>
+          <t>Hukwang</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>No wikidata</t>
+          <t>Q2235155</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Dehergne(1957, p30): "A côté de Hai keu on cite, en 1639, une chrétienté " Nien sien ", dont nous ignorons tout."bourg de Niensien</t>
-        </is>
+          <t>(actuel HUNAN + HUBEI)Huguang</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Hukwang</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Foochow</t>
+          <t>Wuchang</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Futsing</t>
+          <t>Wuchang</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Q262208</t>
+          <t>Q1014420</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fou-ts'ing, Fuching, hoje:Fuqing, 福清, </t>
-        </is>
+          <t xml:space="preserve">Wuchang, </t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Hukwang</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Foochow</t>
+          <t>Anlu</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Kutien</t>
+          <t>Anlu</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Q1168209</t>
+          <t>Q557934</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kou-t'ien, hoje:Gutian, 古田, </t>
-        </is>
+          <t xml:space="preserve">Anlu, </t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Hukwang</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Foochow</t>
+          <t>Changsha</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Lienkong</t>
+          <t>Changsha</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Q204827</t>
+          <t>Q174091</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lien-kiang,Lienchiang, hoje:Lianjiang, 连江, </t>
-        </is>
+          <t xml:space="preserve"> 长沙</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Hukwang</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Changchow</t>
+          <t>Changsha</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Changchow</t>
+          <t>Siangtan</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Q68814</t>
+          <t>Q215755</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Zhangzhou, hoje:Zhangzhou, 漳州, Changchow (Lungki)</t>
-        </is>
+          <t xml:space="preserve"> Xiangtan,湘潭</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Hukwang</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Changchow</t>
+          <t>Chengchow</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Aupua</t>
+          <t>Chengchow</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>No wikidata</t>
+          <t>Q416748</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>hoje: Houban, 后坂, (@geonames:1977135)Au-poa,Heupuen</t>
-        </is>
+          <t>Chenzhou，郴州 Chen(g)chow</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Hukwang</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Chüanchow</t>
+          <t>Hengchow</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Chüanchow</t>
+          <t>Hengchow</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Q68695</t>
+          <t>Q144663</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quanzhou, Ts'iuen-tcheou, hoje:Quanzhou, 泉州, </t>
-        </is>
+          <t>, Hengyang</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Hukwang</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Chüanchow</t>
+          <t>Kingchow</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Amoy</t>
+          <t>Kingchow</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Q68744</t>
+          <t>Q71247</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Hia-men,Shamen, hoje:Xiamen, 厦门, ,Amoy (Szeming)</t>
-        </is>
+          <t xml:space="preserve">Jingzhou, </t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Hukwang</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Chüanchow</t>
+          <t>Teian</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Anhai</t>
+          <t>Teian</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Q4764330</t>
+          <t>No wikidata</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Ngan-hai,hoje:Anhai,安海, principaux bourgs</t>
-        </is>
+          <t>No Wikidata</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Hukwang</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Chüanchow</t>
+          <t>Yungchow</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Hweian</t>
+          <t>Yungchow</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Q1374978</t>
+          <t>Q266014</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hoei-ngan, hoje:Hui'an, 惠安, </t>
-        </is>
+          <t xml:space="preserve">Yongzhou, </t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Fukien</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Chüanchow</t>
-        </is>
-      </c>
+          <t>Kiangnan</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Tsingkiang</t>
+          <t>Kiangnan</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Q428587</t>
+          <t>Q11133842</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Chingchiang ,Tsin-kiang, hoje: Jingjiang, 靖江, . In the original book (Dehergne, 1973), it is written as "Tsinkiang" (without g), which is wrongly spelled, because from both phonetic and geographical points of view, it should be Tsingkiang 靖江. In Dehergne(1973), it is written as Tsingjiang. And in the Chinese translation, it is also recognized as "靖江".Tsinkiang</t>
-        </is>
+          <t xml:space="preserve">KIANGNAN ou NANKIN (actuel ANHUI + JIANGSU),Jiangnan, </t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Kiangnan</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Chüanchow</t>
+          <t>Nanking</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Yungchun</t>
+          <t>Nanking</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Q1337868</t>
+          <t>Q16666</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yong-tch'oen,Yungchin, hoje:Yongchun, 永春, </t>
-        </is>
+          <t xml:space="preserve">Nanjing, </t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Kiangnan</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Funing</t>
+          <t>Anking</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Funing</t>
+          <t>Anking</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Q241877</t>
+          <t>No wikidata</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Fou-ning, hoje:Funing, 福宁,, historical administrative division. The Wikidata code is of its administrative center Xiapu 霞浦Funing (tcheou indép.)</t>
-        </is>
+          <t>wikidata:Q360374,Anqing, 安庆</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Kiangnan</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Funing</t>
+          <t>Changchow</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Fuan</t>
+          <t>Changchow</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Q1374581</t>
+          <t>Q57970</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fou-ngan, hoje:Fu'an, 福安, </t>
-        </is>
+          <t xml:space="preserve">Changzhou, </t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Kiangnan</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Funing</t>
+          <t>Changchow</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Hiapoey</t>
+          <t>Wusih</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>No wikidata</t>
+          <t>Q42651</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Apuy, hoje: Xiapi, 下邳, in the Chinese translation, it is recognized as "霞浦", but actually it is not. In Dehergne(1957), it is noted as "下邳". Coordinate: 26.832013826263175N, 119.77591087254943E @geonames:8579733Hiapoey (Apuy)</t>
-        </is>
+          <t xml:space="preserve">Wuxi, 无锡, </t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Kiangnan</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Funing</t>
+          <t>Chinchow</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Lokia</t>
+          <t>Chinchow</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>No wikidata</t>
+          <t>Q360870</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Lukiahsiang,Lokahoeng, hoje:Luojiaxiang, 罗家巷, in the Chinese translation, it is recognized as "闾峡", but in Dehergne(1957), it is noted as "罗家巷". "罗家巷" now is in 罗江.coordinate: 26.971131830911116N, 119.67270683499889E @geonames:8579942principaux bourgs</t>
-        </is>
+          <t xml:space="preserve"> Chizhou, 池州Chinchow (= Kweichih)</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Kiangnan</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Funing</t>
+          <t>Chinkiang</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Muyang</t>
+          <t>Chinkiang</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Q14471971</t>
+          <t>Q57958</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>hoje:Muyang, 穆阳, principaux bourgs, Mou-yang</t>
-        </is>
+          <t xml:space="preserve">Zhenjiang, </t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Kiangnan</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Funing</t>
+          <t>Chinkiang</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Tingteo</t>
+          <t>Tanyang</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>No wikidata</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
+          <t>Q925293</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Danyang, </t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>1644</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Kiangnan</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Funing</t>
+          <t>Fengyang</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Ningteh</t>
+          <t>Fengyang</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Q68919</t>
+          <t>Q44212</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>hoje: Ningde, 宁德, Ning-té,Ningte</t>
-        </is>
+          <t xml:space="preserve"> 凤阳</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Kiangnan</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Funing</t>
+          <t>Fengyang</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Showning</t>
+          <t>Wuho</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Q1149660</t>
+          <t>Q1334665</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cheou-ning, hoje:Shouning, 寿宁, </t>
-        </is>
+          <t>.Wuhe, 五河</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Kiangnan</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Hinghwa</t>
+          <t>Hwaian</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Hinghwa</t>
+          <t>Hwaian</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Q17498990</t>
+          <t>Q57818</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hing-hoa,Hsinghua, hoje:Xinghua, 兴化, </t>
-        </is>
+          <t xml:space="preserve">Huai'an, </t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Kiangnan</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Hinghwa</t>
+          <t>Soochow</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Putien</t>
+          <t>Soochow</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Q17031936</t>
+          <t>Q57719</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve">P'ou-t'ien, hoje:Putian, 莆田, </t>
-        </is>
+          <t xml:space="preserve"> Xuzhou, 徐州</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Kiangnan</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Hinghwa</t>
+          <t>Soochow</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Sienyu</t>
+          <t>Changshu</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Q1337926</t>
+          <t>Q1015805</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sien-yeou, hoje:Xianyou, 仙游, </t>
-        </is>
+          <t xml:space="preserve">Changshu (Cham xo), Changshu, </t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Kiangnan</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Kienning</t>
+          <t>Soochow</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Kienning</t>
+          <t>Kunshan</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Q639862</t>
+          <t>Q46535130</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kienning (Kienow), Kien-yang, hoje:Jianyang, 建阳, </t>
-        </is>
+          <t>,Kunshan, 昆山</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Kiangnan</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Kienning</t>
+          <t>Süchow</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Kienyang</t>
+          <t>Süchow</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Q639862</t>
+          <t>Q42622</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kien-yang, hoje:Jianyang, 建阳, </t>
-        </is>
+          <t xml:space="preserve">Suzhou, </t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Kiangnan</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Kienning</t>
+          <t>Sungkiang</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Chungan</t>
+          <t>Sungkiang</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Q94945</t>
+          <t>Q11104671</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Tch'ong-ngan, hoje:Chong'an, 崇安, , Today the city's name changed to be Wuyishan 武夷山市, and the wikidata code is that of Wuyishan</t>
-        </is>
+          <t xml:space="preserve">Songjiang, </t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Kiangnan</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Shaowu</t>
+          <t>Sungkiang</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Shaowu</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Q1025451</t>
+          <t>Q8686</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chao-ou, hoje:Shaowu, 邵武, </t>
-        </is>
+          <t xml:space="preserve">Shanghai, </t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Kiangnan</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Shaowu</t>
+          <t>Sungkiang</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Kienning hien</t>
+          <t>Tsingpu</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Q781559</t>
+          <t>Q46536920</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kien-ning,Chienning, hoje:Jianning Xian, 建宁县, </t>
-        </is>
+          <t xml:space="preserve">Qingpu, </t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Kiangnan</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Shaowu</t>
+          <t>Taitsang</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Taining</t>
+          <t>Taitsang</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Q1375194</t>
+          <t>Q61985</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve">T'ai-ning, hoje:Taining, 泰宁, </t>
-        </is>
+          <t xml:space="preserve"> Taicang, 太仓</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Kiangnan</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Tingchow</t>
+          <t>Taitsang</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Tingchow</t>
+          <t>Kiating</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Q7808213</t>
+          <t>Q662101</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t xml:space="preserve">T'ing-tcheou, hoje:Tingzhou, 汀州, </t>
-        </is>
+          <t xml:space="preserve">Jiading, </t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Kiangnan</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Tingchow</t>
+          <t>Taitsang</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Ninghwa</t>
+          <t>Tsungming</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Q1198091</t>
+          <t>Q788812</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ning-hoa, hoje:Ninghua, 宁化, </t>
-        </is>
+          <t xml:space="preserve">Chongming, </t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Kiangnan</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Tingchow</t>
+          <t>Yangchow</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Tsingliu</t>
+          <t>Yangchow</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Q1198324</t>
+          <t>Q57906</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tsing-lowou,Chingliu, hoje:Qingliu, 清流, </t>
-        </is>
+          <t xml:space="preserve">Yangzhou, </t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Fukien</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Yenping</t>
-        </is>
-      </c>
+          <t>Kiangsi</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Yenping</t>
+          <t>Kiangsi</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Q1337959</t>
+          <t>Q57052</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yen-p'ing, hoje:Yanping, 延平, </t>
-        </is>
+          <t xml:space="preserve">Jiangxi, </t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Kiangsi</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Yenping</t>
+          <t>Nanchang</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Shahsien</t>
+          <t>Nanchang</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Q1198385</t>
+          <t>Q171943</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>hoje: Shaxian, 沙县 Cha</t>
-        </is>
+          <t xml:space="preserve">Nanchang, </t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Kiangsi</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>Fuchow</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>Fuchow</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Q22502</t>
+          <t>Q363391</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>hoje:Taiwan, 台湾, Formose (Taiwan), Formosa</t>
-        </is>
+          <t>, Fuzhou, 抚州</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Kiangsi</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>Jaochow</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Kilung</t>
+          <t>Jaochow</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Q249996</t>
+          <t>Q1356313</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ki-long, Jilong, hoje:Keelung, 基隆, </t>
-        </is>
+          <t xml:space="preserve"> Raozhou, 饶州,present day Poyang County</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Kiangsi</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>Kanchow</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Tamsui</t>
+          <t>Kanchow</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Q570509</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
+          <t>Q363166</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ganzhou (赣州) in Jiangxi </t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>1644</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Kiangsi</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>Kanchow</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Taparri</t>
+          <t>Ningtu</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>No wikidata</t>
+          <t>Q1356516</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>hoje：大包里</t>
-        </is>
+          <t>,Ningdu, 宁都</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Kiangsi</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>Kanchow</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Camarri</t>
+          <t>Sinfeng</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>No wikidata</t>
+          <t>Q1356667</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>hoje:Jinbaoli, 金包里, in the Chinese translation it is recognized as “噶玛兰”, but in Dehergne(1957) it is noted as "金包里". It is an area in the Northern Taiwan. coordinate: 25.22189808588497N, 121.6382892794898EQuimauri</t>
-        </is>
+          <t>, Xinfeng,信丰</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Kiangsi</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>Kian</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Santiago</t>
+          <t>Kian</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Q31106</t>
+          <t>Q363262</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>hoje:Cape Santiago, 三貂角, Kakinauan, Samitiao</t>
-        </is>
+          <t>,Ji'an,吉安</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Honan</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr"/>
+          <t>Kiangsi</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Kian</t>
+        </is>
+      </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Honan</t>
+          <t>Tingnan</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Q43684</t>
+          <t>Q1226461</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t xml:space="preserve">hoje:Henan, 河南, </t>
-        </is>
+          <t>, Dingnan, 定南</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Honan</t>
+          <t>Kiangsi</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Kaifeng</t>
+          <t>Kienchang</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Kaifeng</t>
+          <t>Kienchang</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Q208471</t>
+          <t>Q11065388</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kaifeng (Pienleang) «chrétiens de la Croix» (D'Elu II 319 sq) v. 1550., chrétienté v. 1623, K'ai-fong, hoje:Kaifeng, 开封, </t>
-        </is>
+          <t xml:space="preserve">Jianchang, </t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Honan</t>
+          <t>Kiangsi</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Kaifeng</t>
+          <t>Kienchang</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Yüanwu</t>
+          <t>Nanfeng</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Q10911308</t>
+          <t>Q1356725</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yuen-ou, hoje:Yuanwu, 原武, </t>
-        </is>
+          <t xml:space="preserve">Nanfeng, </t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Honan</t>
+          <t>Kiangsi</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Kweiteh</t>
+          <t>Kiukiang</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Kweiteh</t>
+          <t>Kiukiang</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Q404817</t>
+          <t>Q216077</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Koei-té,Kueite, hoje: Guide, 归德, </t>
-        </is>
+          <t>,Jiujiang, 九江</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Hukwang</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr"/>
+          <t>Kiangsi</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Kwangsin</t>
+        </is>
+      </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Hukwang</t>
+          <t>Kwangsin</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Q2235155</t>
+          <t>Q6807877</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Huguang?, Hou-Quang, hoje:Huguang,湖广, </t>
-        </is>
+          <t xml:space="preserve"> Guangxin, 广信</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Hukwang</t>
+          <t>Kiangsi</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Wuchang</t>
+          <t>Kwangsin</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Wuchang</t>
+          <t>Yushan</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Q1014420</t>
+          <t>Q1336063</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t xml:space="preserve">do Hupei?, Ou-tch'ang, hoje:Wuchang, 武昌, </t>
-        </is>
+          <t>,Yushan, 玉山</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Hukwang</t>
+          <t>Kiangsi</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Wuchang</t>
+          <t>Nanan</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Tungshan</t>
+          <t>Nanan</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Q1356703</t>
+          <t>Q10907402</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t xml:space="preserve">T'ong-chan, hoje:Tongshan, 通山, </t>
-        </is>
+          <t xml:space="preserve">Nan'an, </t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Hukwang</t>
+          <t>Kiangsi</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Anlu</t>
+          <t>Nanan</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Anlu</t>
+          <t>Tankiang</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Q557934</t>
+          <t>No wikidata</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t xml:space="preserve">do Hupei?, Ngan-lou, hoje:Anlu, 安陆, </t>
-        </is>
+          <t>No wikidata</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Hukwang</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Anlu</t>
-        </is>
-      </c>
+          <t>Kwangsi</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Kingmen</t>
+          <t>Kwangsi</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Q71323</t>
+          <t>Q15176</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kingmen, King-men,Chingmen, hoje:Jingmen, 荆门, </t>
-        </is>
+          <t xml:space="preserve">Guangxi, </t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Hukwang</t>
+          <t>Kwangsi</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Hwangchow</t>
+          <t>Kweilin</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Hwangchow</t>
+          <t>Kweilin</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Q927929</t>
+          <t>Q189633</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t xml:space="preserve">do Hupei?, Hoang-tcheou, hoje:Huangzhou, 黄州, </t>
-        </is>
+          <t xml:space="preserve">Guilin, </t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Hukwang</t>
+          <t>Kwangsi</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Hwangchow</t>
+          <t>Wuchow</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Kichow</t>
+          <t>Wuchow</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Q71323</t>
+          <t>Q571652</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kichow (Kichun), King-men,Chingmen, hoje:Jingmen, 荆门, </t>
-        </is>
+          <t xml:space="preserve">Wuzhou, </t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Hukwang</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Kingchow</t>
-        </is>
-      </c>
+          <t>Kwangtung</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Kingchow</t>
+          <t>Kwangtung</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Q14135188</t>
+          <t>Q15175</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t xml:space="preserve">do Hupei?, K'i-tcheou,Chichou, hoje: Qizhou, 蕲州, </t>
-        </is>
+          <t xml:space="preserve">Guangdong, </t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Hukwang</t>
+          <t>Kwangtung</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Kingchow</t>
+          <t>Cantão</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Kungan</t>
+          <t>Cantão</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Q1198857</t>
+          <t>Q16572</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kong-ngan, hoje:Gong'an, 公安, </t>
-        </is>
+          <t>,Guangzhou, 广州Canton</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Hukwang</t>
+          <t>Kwangtung</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Kingchow</t>
+          <t>Cantão</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Meng kia k'i</t>
+          <t>Fatshan</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>No wikidata</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr"/>
+          <t>Q34412</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>,Foshan, 佛山</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>1644</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Hukwang</t>
+          <t>Kwangtung</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Kingchow</t>
+          <t>Cantão</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Shihshow</t>
+          <t>Sunwui</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Q1359319</t>
+          <t>No wikidata</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Che-cheou, hoje:Shishou, 石首, </t>
-        </is>
+          <t>wikidata:Q1023903,Xinhui, 新会</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Hunan</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr"/>
+          <t>Kwangtung</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Cantão</t>
+        </is>
+      </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Hunan</t>
+          <t>Tungkun</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Q45761</t>
+          <t>Q59218</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hou-nan, hoje:Hunan, 湖南, </t>
-        </is>
+          <t xml:space="preserve">Dongguan, </t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Hunan</t>
+          <t>Kwangtung</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Yungchow</t>
+          <t>Kiungchow</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Yungchow</t>
+          <t>Kiungchow</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Q266014</t>
+          <t>Q1081204</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t xml:space="preserve">do Hunan?, Yong-tcheou, hoje:Yongzhou, 永州, </t>
-        </is>
+          <t xml:space="preserve">Kiungchow (île de Hainan), Qiongzhou, </t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Hunan</t>
+          <t>Kwangtung</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Yungchow</t>
+          <t>Limchow</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Kiyang</t>
+          <t>Limchow</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Q1199641</t>
+          <t>Q1268277</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t xml:space="preserve">K'i-yang,Chiyang, hoje:Qiyang, 祁阳, </t>
-        </is>
+          <t>, Lianzhou, 廉州 present day Hepu County</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Hunan</t>
+          <t>Kwangtung</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Yungchow</t>
+          <t>Luichow</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Paishui</t>
+          <t>Luichow</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>No wikidata</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr"/>
+          <t>Q1209167</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leizhou, </t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>1644</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Kiangnan</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr"/>
+          <t>Kwangtung</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Namyung</t>
+        </is>
+      </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Kiangnan</t>
+          <t>Namyung</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Q11133842</t>
+          <t>Q934465</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Jiangnan?hoje:Jiangnan, 江南, , former province of China, corresponding to modern-day Jiangsu and Anhui provincesKIANGNAN ou NANKING</t>
-        </is>
+          <t xml:space="preserve">Nanxiong, </t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Anhwei</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr"/>
+          <t>Kwangtung</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Namyung</t>
+        </is>
+      </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Anhwei</t>
+          <t>Shihing</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Q40956</t>
+          <t>Q1346567</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anhui, Ngon-hoei, hoje:Anhui, 安徽, </t>
-        </is>
+          <t xml:space="preserve"> Shixing, 始兴</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Anhwei</t>
+          <t>Kwangtung</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Chuchow</t>
+          <t>Namyung</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Chuchow</t>
+          <t>Shuntak</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Q114045</t>
+          <t>Q15931716</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chuchow, hoje:Chuzhou, 滁州, </t>
-        </is>
+          <t>,Shuntak (Xunte Shunde, 顺德Shuntak (Xunte)</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Anhwei</t>
+          <t>Kwangtung</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Hweichow</t>
+          <t>Schiuchow</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Hweichow</t>
+          <t>Schiuchow</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Q4358404</t>
+          <t>No wikidata</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hoei-tcheou, hoje:Huizhou, 徽州, </t>
-        </is>
+          <t>No wikidataShiuhow (Xao cheu)</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Anhwei</t>
+          <t>Kwangtung</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Hweichow</t>
+          <t>Schiuchow</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Wuyan hien</t>
+          <t>Lokchong</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Q1357710</t>
+          <t>Q2012479</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Ou-yuen, hoje:Wuyuan Xian, 婺源县, , Wuyuan historically was in Anhui province, but now it is in the present-day Jiangxi province</t>
-        </is>
+          <t>,Lecong, 乐从</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Anhwei</t>
+          <t>Kwangtung</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Hweichow</t>
+          <t>Schiuchow</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Tungmen</t>
+          <t>Yanfa</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2917,1248 +3214,1385 @@
           <t>No wikidata</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>No wikidataYanfa -- Gin hoa</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>1644</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Kiangsu</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr"/>
+          <t>Kwangtung</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Shiuhing</t>
+        </is>
+      </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Kiangsu</t>
+          <t>Shiuhing</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Q16963</t>
+          <t>Q59164</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jiangju, hoje: Jiangsu, 江苏, </t>
-        </is>
+          <t xml:space="preserve">Chao Kim, Zhaoqing, </t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Kiangsu</t>
+          <t>Kwangtung</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Nanking</t>
+          <t>Waichow</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Nanking</t>
+          <t>Waichow</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Q16666</t>
+          <t>Q59173</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nanjing, Nan-king,Nanching, hoje: Nanjing, 南京, </t>
-        </is>
+          <t>,Huizhou,惠州Waichow, Hwaichow (Hoei cheu), Guizhou,</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Kiangsu</t>
+          <t>Kwangtung</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Nanking</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Siaolingwei</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Q8044278</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hiao-ling-wei,Hsiaolingwei, hoje: Xiaolingwei, 孝陵卫, </t>
-        </is>
+          <t>No wikidata</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Kiangsu</t>
+          <t>Kwangtung</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Nanking</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Kaowang</t>
+          <t>Ilha Verde</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Q13721719</t>
+          <t>Q3319473</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>hoje: Gaowang, 高旺, , in the Chinese translation, it is written as “高望”, which should be “高旺”.</t>
-        </is>
+          <t xml:space="preserve">Ilha Verde, </t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Kiangsu</t>
+          <t>Kwangtung</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Nanking</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Lungtan</t>
+          <t>Lapa</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Q31853195</t>
+          <t>Q14342082</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t xml:space="preserve">hoje:Longtan, 龙潭, </t>
-        </is>
+          <t xml:space="preserve">Lapa (Wan-tchai),Wanzai, </t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Kiangsu</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Changchow</t>
-        </is>
-      </c>
+          <t>Kweichow</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Changchow</t>
+          <t>Kweichow</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Q57970</t>
+          <t>Q47097</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>hoje:Changzhou, 常州, Changchow (Wutsin)</t>
-        </is>
+          <t xml:space="preserve">KWEICHOW (actuel GUIZHOU): néant Guizhou, </t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Kiangsu</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Changchow</t>
-        </is>
-      </c>
+          <t>Pequim</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Ihing</t>
+          <t>Pequim</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Q1015788</t>
+          <t>Q956</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t xml:space="preserve">I-hing,Ihsing, hoje:Yixing, 宜兴, </t>
-        </is>
+          <t>PEKING (actuel HEBEI)</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Kiangsu</t>
+          <t>Pequim</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Changchow</t>
+          <t>Pequim</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Tsinkiang</t>
+          <t>Pequim</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Q428587</t>
+          <t>Q956</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Chingchiang, hoje:Jingjiang, 靖江, , In the original book (Dehergne, 1973), it is written as "Tsinkiang" (without g), which is wrongly spelled, because from both phonetic and geographical points of view, it should be Tsingkiang 靖江. In Dehergne(1973), it is written as Tsingjiang. And in the Chinese translation, it is also recognized as "靖江".</t>
-        </is>
+          <t xml:space="preserve">Pékin collège St Joseph (1605) ou Si-t'ang (sera appelé Nan-t'ang en 1723, à cause du Si-t'ang fondé pour la Propagande, R), Beijing, </t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Kiangsu</t>
+          <t>Pequim</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Changchow</t>
+          <t>Pequim</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Wusih</t>
+          <t>Si-t'ang</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Q42651</t>
+          <t>Q2601521</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ou-si,Wuhsi, hoje:Wuxi, 无锡, </t>
-        </is>
+          <t xml:space="preserve"> 西堂Si-t'ang fondé pour la Propagande, R [em 1703])</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Kiangsu</t>
+          <t>Pequim</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Changchow</t>
+          <t>Pequim</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Wutsin</t>
+          <t>Tong-t'ang</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>No wikidata</t>
+          <t>Q1064185</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>?</t>
-        </is>
+          <t xml:space="preserve"> 东堂Tong-t'ang ou R Saint-Joseph (1655)</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Kiangsu</t>
+          <t>Pequim</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Chinkiang</t>
+          <t>Pequim</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Chinkiang</t>
+          <t>Pei-t'ang</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Q57958</t>
+          <t>Q2032749</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tchen-kiang,Chenchiang, hoje:Zhenjiang, 镇江, </t>
-        </is>
+          <t xml:space="preserve"> 北堂</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Kiangsu</t>
+          <t>Pequim</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Chinkiang</t>
+          <t>Pequim</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Tanyang</t>
+          <t>Liangsiang</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Q925293</t>
+          <t>Q4392206</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tan-yang, hoje:Danyang, 丹阳, </t>
-        </is>
+          <t xml:space="preserve"> Liangxiang, 良乡</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Kiangsu</t>
+          <t>Pequim</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Hwaian</t>
+          <t>Pequim</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Hwaian</t>
+          <t>Tungchow</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Q57818</t>
+          <t>Q393836</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hoai-ngan, hoje:Huai'an, 淮安, </t>
-        </is>
+          <t xml:space="preserve">Tongzhou, </t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Kiangsu</t>
+          <t>Pequim</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Soochow</t>
+          <t>Chengting</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Soochow</t>
+          <t>Chengting</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Q42622</t>
+          <t>Q197678</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Sou-tcheou, Suchou, hoje:Suzhou, 苏州, Soochow (Wuhsien)</t>
-        </is>
+          <t xml:space="preserve">Zhengding, </t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Kiangsu</t>
+          <t>Pequim</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Soochow</t>
+          <t>Paoting</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Changshu</t>
+          <t>Paoting</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Q113497198</t>
+          <t>Q58584</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>hoje:Wuxian, 吴县, , fomer city in Jiangsu</t>
-        </is>
+          <t xml:space="preserve">Baoding, </t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Kiangsu</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Soochow</t>
-        </is>
-      </c>
+          <t>Shansi</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Kiating</t>
+          <t>Shansi</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Q662101</t>
+          <t>Q46913</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kia-ting,Chiating, hoje:Jiading, 嘉定, </t>
-        </is>
+          <t xml:space="preserve">Shanxi, </t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Kiangsu</t>
+          <t>Shansi</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Soochow</t>
+          <t>Taiyuan</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Tsungming</t>
+          <t>Taiyuan</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Q788812</t>
+          <t>Q72778</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Tch'ong-ming,Chungming, hoje: Chongming, 崇明, Tsungming (île)</t>
-        </is>
+          <t xml:space="preserve">Taiyuan, </t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Kiangsu</t>
+          <t>Shansi</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Sungkiang</t>
+          <t>Fenchow</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Sungkiang</t>
+          <t>Fenchow</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Q11104671</t>
+          <t>Q15939727</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Song-kiang,Sungching, hoje: Songjiang, 松江, </t>
-        </is>
+          <t>,Fenzhou, 汾州</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Kiangsu</t>
+          <t>Shansi</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Sungkiang</t>
+          <t>Fenchow</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Kaokia</t>
+          <t>Pingyao</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>No wikidata</t>
+          <t>Q500061</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>hoje: Gaojia, 高家, in the Chinese translation it is recognized as “高家岗”, which actually is not in that area. It should be “高家”. Dehergne(1957, p60) said "'Cao kia' près de Cié pao (=Tsipao) est citée dans l'annuelle de 1643 (JS 122 185). Il y a un 高家 plus près de Sungkiang, à l'est."</t>
-        </is>
+          <t>, 平遥Pingyao du Fenchow</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Kiangsu</t>
+          <t>Shansi</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Sungkiang</t>
+          <t>Fenchow</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Mo ka pang</t>
+          <t>Kiehsiu</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>No wikidata</t>
+          <t>Q1362530</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Ma kia pim, hoje: Majiabang, 马家浜, in the Chinese translation it is recognized as “穆喀榜”, which is wrong. Dehergne(1957, p60) said it is "马家滨" at "sud de Sung-kiang". In the present day it might be "马家浜" to the south Songjiang. coordinate: 30.845691234919308N, 121.3179093082612E</t>
-        </is>
+          <t xml:space="preserve"> Jiexiu, 介休Kiehsiu du Fenchow</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Kiangsu</t>
+          <t>Shansi</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Sungkiang</t>
+          <t>Pingyang</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Chwansha</t>
+          <t>Pingyang</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Q11055382</t>
+          <t>Q15905472</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tch'oan-cha, hoje:Chuansha, 川沙, </t>
-        </is>
+          <t>Pingyang Fu, , Q73156</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Kiangsu</t>
+          <t>Shansi</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Sungkiang</t>
+          <t>Pingyang</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Fenghsien</t>
+          <t>Kiangchow</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Q662694</t>
+          <t>Q1197219</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Fong-hien,Fenghsien, hoje:Fengxian, 奉贤, Fenghsien (Vongtsié)</t>
-        </is>
+          <t xml:space="preserve">Jiangzhou, </t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Kiangsu</t>
+          <t>Shansi</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Sungkiang</t>
+          <t>Pingyang</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Kinshan</t>
+          <t>Puchow</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Q662241</t>
+          <t>Q14105968</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kin-chan,Chinshan, hoje: Jinshan, 金山, </t>
-        </is>
+          <t xml:space="preserve">Puzhou, </t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Kiangsu</t>
+          <t>Shansi</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Sungkiang</t>
+          <t>Pingyang</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Chuking</t>
+          <t>Hungtung</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Q11094342</t>
+          <t>Q1197616</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Tchou-king,Chuching, hoje:Zhujing, 朱泾, , in the Chinese traslation it is written as “诸泾”, which should be “朱泾”</t>
-        </is>
+          <t xml:space="preserve"> 洪洞</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Kiangsu</t>
+          <t>Shansi</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Sungkiang</t>
+          <t>Pingyang</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Kiehsiu</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Q8686</t>
+          <t>Q1362530</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chang-hai, hoje: Shanghai, 上海, </t>
-        </is>
+          <t xml:space="preserve"> Jiexiu, 介休</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Kiangsu</t>
+          <t>Shansi</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Sungkiang</t>
+          <t>Pingyang</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Tsingpu</t>
+          <t>Siangling</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Q46536920</t>
+          <t>Q22099543</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ts'ing-p'ou,Chingpu, hoje: Qingpu, 青浦, </t>
-        </is>
+          <t xml:space="preserve"> Xiangling 襄陵县，the wikidata code of it dose not contain coordination information, which can be substituted by Q1197358，present day Xiangfen County 襄汾县</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Kiangsu</t>
+          <t>Shansi</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Sungkiang</t>
+          <t>Pingyang</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Tsipao</t>
+          <t>Taiping</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Q1875153</t>
+          <t>Q18111423</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tsi-pao,Chipao, hoje: Qibao, 七宝, </t>
-        </is>
+          <t>Taiping, ,太平县，the wikidata code of it dose not contain coordinate information, which can be substituted by Q11137509，the present-day 汾城镇</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Kiangsu</t>
+          <t>Shansi</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Yangchow</t>
+          <t>Pingyang</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Yangchow</t>
+          <t>Wanchuan</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Q57906</t>
+          <t>Q8475332</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yang-tcheou, hoje: Yangzhou, 扬州, </t>
-        </is>
+          <t xml:space="preserve"> 万泉县，the wikidata code of it dose not contain coordinate information, which can be substituted by Q1196908，the present-day万荣县</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Kiangsu</t>
+          <t>Shansi</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Yangchow</t>
+          <t>Sinchow</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Kaoyu</t>
+          <t>Sinchow</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Q1253949</t>
+          <t>Q73119</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kao-yeou, hoje: Gaoyou, 高邮, </t>
-        </is>
+          <t>,Xinzhou, 忻州</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Kiangsu</t>
+          <t>Shansi</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Yangchow</t>
+          <t>Sinchow</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Paoshan</t>
+          <t>Tsinglo</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Q661828</t>
+          <t>Q174034</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pao-chan, hoje: Baoshan, 宝山, </t>
-        </is>
+          <t>,Jingle, 静乐</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Kiangsu</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Yangchow</t>
-        </is>
-      </c>
+          <t>Shantung</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Fushan</t>
+          <t>Shantung</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>No wikidata</t>
+          <t>Q43407</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>hoje: Fushan, 福山村, 31.800210981845982N, 120.7617947082488E</t>
-        </is>
+          <t xml:space="preserve">actuel Shandong, Shandong, </t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Kiangsi</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr"/>
+          <t>Shantung</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Tsinan</t>
+        </is>
+      </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Kiangsi</t>
+          <t>Tsinan</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Q57052</t>
+          <t>Q170247</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jiangxi, Kiang-si, hoje: Jiangxi, 江西, </t>
-        </is>
+          <t xml:space="preserve">Jinan, </t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Kiangsi</t>
+          <t>Shantung</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Nanchang</t>
+          <t>Tsinan</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Nanchang</t>
+          <t>Taian</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Q171943</t>
+          <t>Q217681</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nan-tch'ang, hoje:Nanchang, 南昌, </t>
-        </is>
+          <t xml:space="preserve">Tai'an, </t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Kiangsi</t>
+          <t>Shantung</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Kienchang</t>
+          <t>Tsinan</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Kienchang</t>
+          <t>Tehchow</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Q11065388</t>
+          <t>Q162880</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kien-tch'ang,Chienchang, hoje:Jianchang, 建昌, </t>
-        </is>
+          <t>,Dezhou,德州</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Kiangsi</t>
+          <t>Shantung</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Nanan</t>
+          <t>Tsingchow</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Nanan</t>
+          <t>Tsingchow</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Q10907402</t>
+          <t>Q1360781</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nan-ngan, hoje: Nan'an, 南安, </t>
-        </is>
+          <t xml:space="preserve">(-- Idu, Yitu)Qingzhou, , Yidu, </t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Kiangsi</t>
+          <t>Shantung</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Nanan</t>
+          <t>Linchu</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Nancheng</t>
+          <t>Linchu</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Q521512</t>
+          <t>Q1198208</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nan-tch'eng, hoje:Nancheng, 南城, </t>
-        </is>
+          <t>,Linkiu, 临朐</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Kiangsi</t>
+          <t>Shantung</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Nanan</t>
+          <t>Tungchang</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Nanfeng</t>
+          <t>Tungchang</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Q1356725</t>
+          <t>Q10870440</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nan-fong, hoje: Nanfeng, 南丰, </t>
-        </is>
+          <t xml:space="preserve">Dungchang, </t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Kwangsi</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr"/>
+          <t>Shantung</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Tungchang</t>
+        </is>
+      </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Kwangsi</t>
+          <t>Lintsing</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Q15176</t>
+          <t>No wikidata</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t xml:space="preserve">Guangxi, Koang-si, hoje: Guangxi, 广西, </t>
-        </is>
+          <t>wikidata:Q1207099.Linqing, 临清</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Kwangsi</t>
+          <t>Shantung</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Kweilin</t>
+          <t>Yenchow</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Kweilin</t>
+          <t>Yenchow</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Q189633</t>
+          <t>Q10891140</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Koei-lin, hoje: Guilin, 桂林, </t>
-        </is>
+          <t xml:space="preserve"> Yanzhou, 兖州</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Kwangsi</t>
+          <t>Shantung</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Wuchow</t>
+          <t>Yenchow</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Wuchow</t>
+          <t>Ichow</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Q571652</t>
+          <t>Q11552388</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ou-tcheou, hoje: Wuzhou, 梧州, </t>
-        </is>
+          <t>Ichow ( -- Lini)</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Kwangtung</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr"/>
+          <t>Shantung</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Yenchow</t>
+        </is>
+      </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Kwangtung</t>
+          <t>Tsining</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Q15175</t>
+          <t>Q372791</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t xml:space="preserve">Guangdong, hoje:Guangdong, 广东, </t>
-        </is>
+          <t>,Jining, 济宁</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Kwangtung</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Macau</t>
-        </is>
-      </c>
+          <t>Shensi</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Shensi</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Q14773</t>
+          <t>Q46913</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t xml:space="preserve">Macau, hoje: Macao, 澳门, </t>
-        </is>
+          <t>(actuel SHANXI)Shanxi,  Shaanxi 陕西</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Kwangtung</t>
+          <t>Shensi</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Sian</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Tsingchow</t>
+          <t>Sian</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Q3319473</t>
+          <t>Q5826</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Tsingchow,Ts'ing-tcheou, hoje: Ilha Verde, 青州, Ilha Verde (Tsingchow)</t>
-        </is>
+          <t xml:space="preserve">Xi'an, </t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Kwangtung</t>
+          <t>Shensi</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Sian</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Wantchai</t>
+          <t>Sanyuan</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Q14342082</t>
+          <t>Q1201362</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Lapa,Wantchai, hoje: Wanzai, 湾仔, Lappa (Wantchai)</t>
-        </is>
+          <t xml:space="preserve">Sanyuan, </t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Kwangtung</t>
+          <t>Shensi</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Cantão</t>
+          <t>Hanchung</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Cantão</t>
+          <t>Hanchung</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Q16572</t>
+          <t>Q515573</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t xml:space="preserve">Koang-tcheou, hoje:Guangzhou, 广州, </t>
-        </is>
+          <t xml:space="preserve">Hanzhong, </t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Kwangtung</t>
+          <t>Shensi</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Cantão</t>
+          <t>Chengku</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Tungkun</t>
+          <t>Chengku</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Q59218</t>
+          <t>Q1069968</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tong-koan,Tungkuan, hoje:Dongguan, 东莞, </t>
-        </is>
+          <t xml:space="preserve">Chenggu, </t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Kwangtung</t>
+          <t>Shensi</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Cantão</t>
+          <t>Chengku</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Quon yao</t>
+          <t>Siao-tchai</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4168,1989 +4602,149 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>hoje: Guanyao, 官窑, In the Chinses translation it is recognized as “高要村”，which is wrong. in Dehergne(1957), it is noted as "官窑". coordinate: 23.314954073028765N, 113.22132587290358E</t>
-        </is>
+          <t>No wikidataSiao-tchai du Chengku</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Kwangtung</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Cantão</t>
-        </is>
-      </c>
+          <t>Szechwan</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Lampacao</t>
+          <t>Szechwan</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Q6482357</t>
+          <t>Q19770</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lampacau,Lampacão, hoje: 浪白滘, 浪白澳, </t>
-        </is>
+          <t xml:space="preserve">actuel SICHUAN)Sichuan, </t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Kwangtung</t>
+          <t>Szechwan</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Kiungchow</t>
+          <t>Chengtu</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Kiungchow</t>
+          <t>Chengtu</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Q1081204</t>
+          <t>Q30002</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>K'iong-tcheou,Chiungchou, hoje: Qiongzhou, 琼州, Kiungchow (île de Hainan)</t>
-        </is>
+          <t xml:space="preserve">Chengdu, </t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Kwangtung</t>
+          <t>Szechwan</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Kiungchow</t>
+          <t>Chungking</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Tingan</t>
+          <t>Chungking</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Q1022249</t>
+          <t>Q11725</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ting-ngan, hoje: Ding'an, 定安, </t>
-        </is>
+          <t xml:space="preserve">Chongqing, </t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Kwangtung</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Kiungchow</t>
-        </is>
-      </c>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Bankao</t>
+          <t>Yunnan</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>No wikidata</t>
+          <t>Q43194</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>hoje:Xiangou, 仙沟, In the Chinese translation it is recognized as "板桥", but in Dehergne (1957), it is noted as "仙沟". Coordinate: 19.678430033709233N, 110.3760945797476E</t>
-        </is>
+          <t xml:space="preserve">Yunnan, </t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>1644</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Kwangtung</t>
+          <t>Yunnan</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Kiungchow</t>
+          <t>Yunnanfu</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Lungmo</t>
+          <t>Yunnanfu</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Q11181853</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>Lummo, hoje: Longmen, 龙门, , in the Chinese translation it is written as “龙末”, but but in Dehergne (1957), it is noted as "龙门"</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Kwangtung</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Luichow</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>Luichow</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>Q1209167</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lei-tcheou, hoje: Leizhou, 雷州, </t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Kwangtung</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Namyung</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>Namyung</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>Q934465</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>Nan-hiong, hoje: Nanxiong, 南雄, Namyung (alors fou)</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>Kwangtung</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Schiuchow</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Schiuchow</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>Q1346617</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>Chao-tcheou, hoje: Shaozhou, 韶州, , historical administrative division. The Wikidata code is of its administrative center Qujiang 曲江, which is in the present-day City of Shaoguan 韶关.Shiuchow (Chao-tcheou)</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>Kwangtung</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Schiuchow</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Makia</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
           <t>No wikidata</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>Machia, hoje: Majia, 马家, Dehergne(1957) said Makia"马家" is "à 15 kilomètres au sud de la ville" (de Shiuchow), which should be to the south of Shiuchow, but I only found one "马家" in that area, but it is to the west of the city (24.75569541392557, 113.15960996554436), which might not be the right place.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>Kwangtung</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Schiuchow</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Tsintsun</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>No wikidata</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>Cinçun, hoje: Jingcun, 靖村, coordinate:24.840448198893206N, 113.54394322209676E. In the original book (Dehergne, 1973), it is written as "Tsintsun" (without g), which is wrongly spelled. In Dehergne(1973), it is written as Tsingtsun, with the Chinese name 靖村 noted. It is "à une heure et demie de marche au nord-ouest de Siuchow." In the Chinese traslation, it is recognized as "青村", which is wrong.</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Kwangtung</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Schiuchow</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Hwangtsun</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>No wikidata</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>Vançun, hoje: Huangcun, 黄村, coordinate: 24.900778941203768N, 113.60398607001083E Dehergne(1957): "à une heure de chemin au nord de Shiuchow".</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Kwangtung</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Schiuchow</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Hwanghsiaping</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>No wikidata</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>Hwanghsiaping, hoje: Vankaxen, 黄下坪？, In the Chinese translation, it is recognized as "黄下坪". Dehergne(1957):"Hwanghsiaping (" Vankaxen ") à 15 li à l'ouest de Shiuchow." But it cannot be found in the map.</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Kwangtung</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Schiuchow</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Motikang</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>No wikidata</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>Mochi, hoje: Madigang, 麻地岗, In the Chinese translation, it is recognized as “末岗”, but in Dehergne(1957), it is noted as “麻地岗”. coordinate: 24.68899887552694N, 113.57599418283718E</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Kwangtung</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Schiuchow</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Yangsiang</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>No wikidata</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>Yang-hiang, hoje: 杨姓村</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Kwangtung</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Shiuhing</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Shiuhing</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>Q59164</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>Tchao-k'ing, Chaoching, hoje: Zhaoqing, 肇庆, Shiuhing (Tchao-k'ing, actuel Hoyiu)</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Kwichow</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr"/>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Kwichow</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>Q47097</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Koei-Tcheou, hoje: Guizhou, 贵州, </t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Pequim</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr"/>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Pequim</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Q956</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>Pequim</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Pequim,</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Pequim,</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>Q956</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>hoje: 北京, Peking (Shuntien) (1598), 1601</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Pequim</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Pequim,</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Chala</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>Q4578286</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>Chala (cimetière et chapelle)</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>Pequim</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Pequim,</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Tacheng</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>Q1156678</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ta-tch'eng,hoje: Dacheng, 大城县. </t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>Pequim</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Pequim,</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Tientsin</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>Q11736</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>T'ien-tsin,Tienchin, hoje: Tianjin, 天津, Tientsin</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Pequim</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Pequim,</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Tungchow</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>Q393836</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>T'ong-tcheou, hoje: Tongzhou, 通州, ?</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>Pequim</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Chengting</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Chengting</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>Q197678</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tcheng-ting, hoje: Zhengding, 正定, </t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>Pequim</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Chengting</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Tingchow</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>Q64518</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ting tcheou, hoje: Dingzhou, 定州, </t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>Pequim</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Hokien</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Hokien</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>Q1601618</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ho-kien, hoje: Hejian, 河间, </t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>Pequim</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Hokien</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Ningtsin</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>Q1197955</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ning-tsin,Ningchin, hoje: Ningjin, 宁津, </t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>Pequim</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Hokien</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>Wukiao</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>Q474923</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ou-k'iao,Wuchiao,hoje: Wuqiao, 吴桥, </t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>Pequim</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Paoting</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Paoting</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>Q58584</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paoting (Tsingyüan), hoje: Baoding, 保定, </t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>Pequim</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Paoting</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Kaoyang</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>Q1196631</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kao-yang, hoje: Gaoyang, 高阳, </t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>Pequim</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Paoting</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>Shulu</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>Q1015480</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>Chou-lou, hoje: Shulu, 束鹿, , Now the city name is Xinji 辛集. Wikidata code is that of Xinji</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>Shansi</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr"/>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>Shansi</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>Q46913</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chan-si, hoje: Shanxi, 山西, </t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>Shansi</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Taiyuan</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>Taiyuan</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>Q72778</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t xml:space="preserve">T'ai-yuen, hoje: Taiyuan, 太原, </t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>Shansi</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Taiyuan</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>Pingting</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>Q1196978</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>P'ing-ting, hoje: Pingding, 平定州, , Now it is Pingding County 平定县Pingting tcheou</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>Shansi</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Pingyang</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Pingyang</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>Q15905472</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>P'ing-yang, hoje: Pingyang Fu, 平阳府, , Q73156, historical administrative division. Now it is in Linfen 临汾. Wikidatacoede also refer to that of Linfen: Q73156Pingyang (Linfen)</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>Shansi</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Pingyang</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Kiangchow</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>Q1197219</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>Chiangchou, hoje: Jiangzhou, 绛州, , historical administrative division. Now it is Xinjiang 新绛. Wikidata code is that of 新绛</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>Shansi</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Pingyang</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Kianghsien</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>Q1197307</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>Kiang hien, hoje: Jiangxian, 绛县, Kianghsien (au Sud de Kiangchow)</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>Shansi</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Pingyang</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>Kuwo</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>Q1332080</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t xml:space="preserve">K'iu-wo,Chüwu, Quwo, 曲沃, </t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>Shansi</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Pingyang</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Puchow</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>Q14105968</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>P'ou-tcheou, hoje: Puzhou, 蒲州, hoje: Q14105968, pas encore fou</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>Shansi</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Pingyang</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Siahsien</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>Q612136</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>Hia hien, hoje: Xiaxian, 夏县, , Dehergne(1957) noted it as “夏县”. In the Chinese translation, it is recognized as "隰县",which is wrong.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>Shansi</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Pingyang</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Taiping</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>Q18111423</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>hoje: Taiping, 太平, , Q1113750, historical administrative division. Now its administrative center is Fencheng 汾城, Wikidata also refer to that of Fencheng: Q1113750Taiping (Fencheng)</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>Shansi</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Tsechow</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>Tsechow</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>Q1113750</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t xml:space="preserve">hoje: Fencheng, 汾城, </t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>Shansi</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Tsechow</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>Tsishan</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>Q197104</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t xml:space="preserve">hoje: Zezhou, 泽州, </t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>Shansi</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Tsechow</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>Yungtsi</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>Q473451</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tsi-chan,Chishan, hoje: Jishan, 稷山, </t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>Shangtung</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr"/>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>Shangtung</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>Q43407</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chan-tong, Shandong, 山东, </t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>Shangtung</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Tsinan</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>Tsinan</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>Q170247</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tsi-nan, hoje: Jinan, 济南, </t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>Shangtung</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Tsinan</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Taian</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>Q217681</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>T'ai-ngan, hoje: Tai'an, 泰安, Taian tcheou</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>Shangtung</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Tsinan</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>Kwanchang</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>No wikidata</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>Shangtung</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Tsinan</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>Manchwang</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>Q14782428</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Muon choam, hoje: Manzhuang, 满庄, </t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>Shangtung</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Tsinan</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Tsiho</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>Q1198234</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t xml:space="preserve">hoje: Qihe, 齐河, </t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>Shangtung</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>Tsinan</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>Wuting</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>Q17008118</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>Ou-ting, hoje: Wuding, 武定, [Wuting, alors tcheou, Hweimin]</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>Shangtung</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Tsinan</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>Pinchow</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>Q373687</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>Shangtung</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Tsinan</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>Yucheng</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>Q373687</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pin-tcheou, hoje: Binzhou, 滨州, </t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>Shangtung</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Tengchow</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>Tengchow</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>Q10428329</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>Teng-tcheou, hoje: Dengzhou, 登州, Tengchow (Penglai)</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>Shangtung</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>Tsingchow</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>Tsingchow</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>Q1360781</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>Ts'ing-tcheou, Chingchou, hoje: Qingzhou, 青州, Tsingchow (Yitu)</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>Shangtung</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Tungchang</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>Tungchang</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>Q10870440</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tong-tch'ang, hoje: Dungchang, 东昌, </t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>Shangtung</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Tungchang</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>Peichingtien</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>No wikidata</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>Dehergne(1957)did not give the Chinese name of Peichingtien.In the Chinese translation, it is recognized as “北辛店村”，but the pronunciation dose not match. In addition, the “北辛店村”of Shandong is far from Dongchang.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>Shangtung</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>Tungchang</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>Lintsing</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>Q1207099</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>Lin-ts'ing,Linching, hoje: Linqing, 临清, Lintsing tcheou</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>Shensi</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr"/>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>Shensi</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>Q47974</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>Chen-si , hoje: Shaanxi @dehergne:399</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>Shensi</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>Sian</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>Sian</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>Q5826</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>Hsian, hoje: Xi'an, 西安, Sun (Changan)</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>Shensi</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Sian</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>Chowchih</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>Q198072</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>hoje: Zhouzhi, 周至, , In the Chinese translation, it is written as “盩厔”. Before 1964, 周至was written as “盩厔”.</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>Shensi</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Sian</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>Kaoling</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>Q280060</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kao-ling, hoje: Gaoling, 高陵, </t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>Shensi</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Sian</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>Kiao-tou</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>No wikidata</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>Kiao-tou (ou Tungyiianfang)</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>Shensi</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Sian</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Hwachow</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>Q727188</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t xml:space="preserve">How-tcheou, hoje: Huazhou, 华州, </t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>Shensi</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Sian</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Sanyuan</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>Q1201362</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sanyuan, 三原, </t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>Shensi</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Sian</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>Shangchow</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>Q1339355</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Changtcheou, hoje: Shangzhou, 商州, </t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>Shensi</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Hanchung</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>Hanchung</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>Q727188</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>How-tcheou, hoje: Huazhou, 华州, Hanchung (Nancheng)</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>Shensi</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Hanchung</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>Chengku</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>Q1069968</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tch'eng-kou, hoje: Chenggu, 城固, </t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>Shensi</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Hanchung</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>Siao tchai tse</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>No wikidata</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>Shensi</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>Hanchung</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>Yanghsien</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>Q1201504</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yang Hien, hoje: Yangxian, 洋县, </t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>Szechwan</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr"/>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>Szechwan</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>Q19770</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Se-tch'oan, hoje: Sichuan, 四川, </t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>Szechwan</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>Chengtu</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>Chengtu</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>Q30002</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>Tch'eng-tou, hoje: Chengdu, 成都, hoje: Chengtu (Hwayang)</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>Szechwan</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>Chengtu</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>Mienchow</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>Q10475921</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mien tcheou, hoje: Mianzhou, 绵州, hoje:  </t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>Szechwan</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>Chungking</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>Chungking</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>Q11725</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>Tch'ong-K'ing,Chungching, hoje: Chongqing, 重庆, Chungking (Pahsien)</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>Szechwan</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>Paoning</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>Paoning</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>Q10887586</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>Pao-ning, hoje: Baoning, 保宁, , Q1200170, 保宁府historical administrative division of China, where 阆中 was in, Wikidata code also refer to that of Langzhong: Q1200170Paoning (Langchung)</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>Yunnan</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr"/>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>Yunnan</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>Q43194</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t xml:space="preserve">hoje: Yunnan, 云南, </t>
-        </is>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="n">
+        <v>1644</v>
       </c>
     </row>
   </sheetData>

--- a/inferences/places-1644.xlsx
+++ b/inferences/places-1644.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F146"/>
+  <dimension ref="A1:E216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,11 +459,6 @@
           <t>comment</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -484,11 +479,8 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Zhejiang， CHEKIANG (actuel ZHEJIANG)</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1644</v>
+          <t>Tche-kiang, hoje:Zhejiang, 浙江,  @dehergne:396</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -514,11 +506,8 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hangzhou, </t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Hang-tcheou, hoje: Hangzhou, 杭州, </t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -534,21 +523,18 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Haining</t>
+          <t>Fuyang</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Q286266</t>
+          <t>Q1011103</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 海宁</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Fou-yang, hoje:Fuyang, 富阳, </t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -559,26 +545,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kashing</t>
+          <t>Hangchou</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Kashing</t>
+          <t>Jenho</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Q58178</t>
+          <t>No wikidata</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jiaxing, </t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1644</v>
+          <t>Jen-houo, hoje: Renhe, 仁和县, Historical county name. coordinate: 30.448897N, 120.307504E</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -589,26 +572,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kinhwa</t>
+          <t>Chüchow</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Kinhwa</t>
+          <t>Chüchow</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Q58210</t>
+          <t>Q58235</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jinhua, </t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1644</v>
+          <t>K'iu-tcheou, hoje:Quzhou, 衢州, , in the Chinese translation it is recognized as “遂州”, which is wrong, both phonetically and geographically. In Dehergne(1957), it is noted as "衢州".</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -619,26 +599,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kinhwa</t>
+          <t>Huchow</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Lanchi</t>
+          <t>Huchow</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Q1023793</t>
+          <t>Q42664</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lanxi, </t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Hou-tcheou, hoje: Huzhou, 湖州, </t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -649,26 +626,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ningpo</t>
+          <t>Huchow</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ningpo</t>
+          <t>Tehtsing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Q42780</t>
+          <t>Q1191987</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ningbo, </t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1644</v>
+          <t>"Tehtsing du Huchow, Té-ts'ing;Teching, hoje: Deqing, 德清, "</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -679,442 +653,401 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ningpo</t>
+          <t>Kashing</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Yenchow</t>
+          <t>Kashing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Q1334217</t>
+          <t>Q58178</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yinzhou, 鄞州 </t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Kia-hing, hoje:Jiaxing, 嘉兴, </t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fukien</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
+          <t>Chekiang</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Kashing</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Kashan</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Q41705</t>
+          <t>Q1361347</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fujian, </t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1644</v>
+          <t>Kia-chan, hoje: Jiashan, 嘉善, Kaosham</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Chekiang</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Foochow</t>
+          <t>Kashing</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Foochow</t>
+          <t>Tangsi</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Q68481</t>
+          <t>Q10931032</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fuzhou, </t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1644</v>
+          <t>"T'ang-k'i Tangchi", hoje:Tangqi, 塘栖 , in the Chinese translation it is recognized as “塘拪”</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Chekiang</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Foochow</t>
+          <t>Kashing</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Lienkong</t>
+          <t>Tsungteh</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Q204827</t>
+          <t>Q10270889</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lianjiang, </t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1644</v>
+          <t>Tch'ong-té,hoje: Chongde, 崇德县 , Historical county name, located in the present Chongfu 崇福镇Tsungteh (Shihmen)</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Chekiang</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Changchow</t>
+          <t>Kashing</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Changchow</t>
+          <t>Tungsiang</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Q68814</t>
+          <t>Q1204548</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zhangzhou, </t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">T'ong-hiang, hoje:Tongxiang, 桐乡, </t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Chekiang</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Chüanchow</t>
+          <t>Kinhwa</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Chüanchow</t>
+          <t>Kinhwa</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Q68695</t>
+          <t>Q58210</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quanzhou, </t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Kin-hoa,Chinhua,hoje:Jinhua, 金华, </t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Chekiang</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Chüanchow</t>
+          <t>Kinhwa</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Amoy</t>
+          <t>Lanchi</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Q68744</t>
+          <t>Q1023793</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Xiamen, </t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">(qui deviendra em 1656 R des OP)Lan-k'i， hoje:Lanxi, 兰溪, </t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Chekiang</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Funing</t>
+          <t>Kinhwa</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Funing</t>
+          <t>Tungyang</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Q241877</t>
+          <t>Q1023774</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">(alors tcheou indépendant)Funing, </t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Tong-yang, hoje:Dongyang, 东阳, </t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Chekiang</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Funing</t>
+          <t>Ningpo</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fuan</t>
+          <t>Ningpo</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Q1374581</t>
+          <t>Q42780</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fu'an, </t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">(v. 1540?)Ning-pouo,hoje: Ningbo, 宁波, </t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Chekiang</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Hinghwa</t>
+          <t>Ningpo</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Hinghwa</t>
+          <t>Wuking</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Q17498990</t>
+          <t>No wikidata</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Xinghua, </t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1644</v>
+          <t>Uchim,Ou kin, hoje:? Dehergne(1957) did not give its Chinese name. In the Chinese translation it is recognized as “五井村”, which cannot be found.bourg de Wuking</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Chekiang</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Kienning</t>
+          <t>Ningpo</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Kienning</t>
+          <t>Tinghai</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Q11065314</t>
+          <t>Q1226419</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kienning fou, Jianning, </t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">T'ing-hai, hoje:Dinghai, 定海, </t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Chekiang</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Kienning</t>
+          <t>Ningpo</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Pucheng</t>
+          <t>Tzeki</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Q1338032</t>
+          <t>Q706161</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">浦城 </t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Ts'e-k'i,Tsuchi, hoje:Cixi, 慈溪, </t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Chekiang</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Shaowu</t>
+          <t>Shaoshing</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Shaowu</t>
+          <t>Shaoshing</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Q1025451</t>
+          <t>Q706161</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shaowu, </t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Chao-hing,Shaohsing, hoje:Shaoxing, 绍兴, </t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Chekiang</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Shaowu</t>
+          <t>Wenchow</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Kienning hien</t>
+          <t>Wenchow</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Q781559</t>
+          <t>Q42635</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jianning Xian, </t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Wen-tcheou, hoje:Wenzhou, 温州, </t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Chekiang</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Tingchow</t>
+          <t>Wenchow</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Tingchow</t>
+          <t>Juian</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Q7808213</t>
+          <t>Q713357</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tingzhou, </t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Joei-ngan, hoje:Rui'an, 瑞安, </t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1123,28 +1056,21 @@
           <t>Fukien</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Tingchow</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Shanghang</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Q1338218</t>
+          <t>Q41705</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve">上杭 </t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>1644</v>
+          <t>Fou-kien, hoje: Fujian, 福建,  @dehergne:397</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1155,26 +1081,23 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Yenping</t>
+          <t>Foochow</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Yenping</t>
+          <t>Foochow</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Q1337959</t>
+          <t>Q68481</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yanping, </t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Fuzhou，Fou-tcheou,Fuchou，hoje: Fuzhou, 福州, </t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1185,2028 +1108,1808 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Yenping</t>
+          <t>Foochow</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Tsianglo</t>
+          <t>Hungtang</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Q1301199</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Jiangle 将乐</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>1644</v>
-      </c>
+          <t>No wikidata</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Honan</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
+          <t>Fukien</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Foochow</t>
+        </is>
+      </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Honan</t>
+          <t>Machang</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Q43684</t>
+          <t>Q17033140</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Henan, </t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>1644</v>
+          <t>hoje: Machang, 马厂村, , The Wikidata code is that of "马厂街基督教堂" Machang Street Christian Churchbourg de Machang, Machang</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Honan</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Kaifeng</t>
+          <t>Foochow</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Kaifeng</t>
+          <t>Diongloh</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Q208471</t>
+          <t>Q766619</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kaifeng, </t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>1644</v>
+          <t>hoje: Changle,长乐, Diongloh (Tch'ang-lo), Tch'ang-lo,Changlo</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Honan</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Kweiteh</t>
+          <t>Foochow</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Kweiteh</t>
+          <t>Hoihow</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Q404817</t>
+          <t>No wikidata</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Guide, </t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>1644</v>
+          <t>Haikeubourg de Hoihow (Haikeu)</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Hukwang</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
+          <t>Fukien</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Foochow</t>
+        </is>
+      </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Hukwang</t>
+          <t>Niensien</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Q2235155</t>
+          <t>No wikidata</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>(actuel HUNAN + HUBEI)Huguang</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>1644</v>
+          <t>Dehergne(1957, p30): "A côté de Hai keu on cite, en 1639, une chrétienté " Nien sien ", dont nous ignorons tout."bourg de Niensien</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Hukwang</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Wuchang</t>
+          <t>Foochow</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Wuchang</t>
+          <t>Futsing</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Q1014420</t>
+          <t>Q262208</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wuchang, </t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Fou-ts'ing, Fuching, hoje:Fuqing, 福清, </t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Hukwang</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Anlu</t>
+          <t>Foochow</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Anlu</t>
+          <t>Kutien</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Q557934</t>
+          <t>Q1168209</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anlu, </t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Kou-t'ien, hoje:Gutian, 古田, </t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Hukwang</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Changsha</t>
+          <t>Foochow</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Changsha</t>
+          <t>Lienkong</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Q174091</t>
+          <t>Q204827</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 长沙</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Lien-kiang,Lienchiang, hoje:Lianjiang, 连江, </t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Hukwang</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Changsha</t>
+          <t>Changchow</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Siangtan</t>
+          <t>Changchow</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Q215755</t>
+          <t>Q68814</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xiangtan,湘潭</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>1644</v>
+          <t>Zhangzhou, hoje:Zhangzhou, 漳州, Changchow (Lungki)</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Hukwang</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Chengchow</t>
+          <t>Changchow</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Chengchow</t>
+          <t>Aupua</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Q416748</t>
+          <t>No wikidata</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Chenzhou，郴州 Chen(g)chow</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>1644</v>
+          <t>hoje: Houban, 后坂, (@geonames:1977135)Au-poa,Heupuen</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Hukwang</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Hengchow</t>
+          <t>Chüanchow</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Hengchow</t>
+          <t>Chüanchow</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Q144663</t>
+          <t>Q68695</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>, Hengyang</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Quanzhou, Ts'iuen-tcheou, hoje:Quanzhou, 泉州, </t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Hukwang</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Kingchow</t>
+          <t>Chüanchow</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Kingchow</t>
+          <t>Amoy</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Q71247</t>
+          <t>Q68744</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jingzhou, </t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>1644</v>
+          <t>Hia-men,Shamen, hoje:Xiamen, 厦门, ,Amoy (Szeming)</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Hukwang</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Teian</t>
+          <t>Chüanchow</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Teian</t>
+          <t>Anhai</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>No wikidata</t>
+          <t>Q4764330</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>No Wikidata</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>1644</v>
+          <t>Ngan-hai,hoje:Anhai,安海, principaux bourgs</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Hukwang</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Yungchow</t>
+          <t>Chüanchow</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Yungchow</t>
+          <t>Hweian</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Q266014</t>
+          <t>Q1374978</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yongzhou, </t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Hoei-ngan, hoje:Hui'an, 惠安, </t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Kiangnan</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
+          <t>Fukien</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Chüanchow</t>
+        </is>
+      </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Kiangnan</t>
+          <t>Tsingkiang</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Q11133842</t>
+          <t>Q428587</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve">KIANGNAN ou NANKIN (actuel ANHUI + JIANGSU),Jiangnan, </t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>1644</v>
+          <t>Chingchiang ,Tsin-kiang, hoje: Jingjiang, 靖江, . In the original book (Dehergne, 1973), it is written as "Tsinkiang" (without g), which is wrongly spelled, because from both phonetic and geographical points of view, it should be Tsingkiang 靖江. In Dehergne(1973), it is written as Tsingjiang. And in the Chinese translation, it is also recognized as "靖江".Tsinkiang</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Kiangnan</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Nanking</t>
+          <t>Chüanchow</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Nanking</t>
+          <t>Yungchun</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Q16666</t>
+          <t>Q1337868</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nanjing, </t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Yong-tch'oen,Yungchin, hoje:Yongchun, 永春, </t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Kiangnan</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Anking</t>
+          <t>Funing</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Anking</t>
+          <t>Funing</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>No wikidata</t>
+          <t>Q241877</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>wikidata:Q360374,Anqing, 安庆</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>1644</v>
+          <t>Fou-ning, hoje:Funing, 福宁,, historical administrative division. The Wikidata code is of its administrative center Xiapu 霞浦Funing (tcheou indép.)</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Kiangnan</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Changchow</t>
+          <t>Funing</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Changchow</t>
+          <t>Fuan</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Q57970</t>
+          <t>Q1374581</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Changzhou, </t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Fou-ngan, hoje:Fu'an, 福安, </t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Kiangnan</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Changchow</t>
+          <t>Funing</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Wusih</t>
+          <t>Hiapoey</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Q42651</t>
+          <t>No wikidata</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wuxi, 无锡, </t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>1644</v>
+          <t>Apuy, hoje: Xiapi, 下邳, in the Chinese translation, it is recognized as "霞浦", but actually it is not. In Dehergne(1957), it is noted as "下邳". Coordinate: 26.832013826263175N, 119.77591087254943E @geonames:8579733Hiapoey (Apuy)</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Kiangnan</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Chinchow</t>
+          <t>Funing</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Chinchow</t>
+          <t>Lokia</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Q360870</t>
+          <t>No wikidata</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chizhou, 池州Chinchow (= Kweichih)</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>1644</v>
+          <t>Lukiahsiang,Lokahoeng, hoje:Luojiaxiang, 罗家巷, in the Chinese translation, it is recognized as "闾峡", but in Dehergne(1957), it is noted as "罗家巷". "罗家巷" now is in 罗江.coordinate: 26.971131830911116N, 119.67270683499889E @geonames:8579942principaux bourgs</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Kiangnan</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Chinkiang</t>
+          <t>Funing</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Chinkiang</t>
+          <t>Muyang</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Q57958</t>
+          <t>Q14471971</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zhenjiang, </t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>1644</v>
+          <t>hoje:Muyang, 穆阳, principaux bourgs, Mou-yang</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Kiangnan</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Chinkiang</t>
+          <t>Funing</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Tanyang</t>
+          <t>Tingteo</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Q925293</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Danyang, </t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>1644</v>
-      </c>
+          <t>No wikidata</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Kiangnan</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Fengyang</t>
+          <t>Funing</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Fengyang</t>
+          <t>Ningteh</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Q44212</t>
+          <t>Q68919</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 凤阳</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>1644</v>
+          <t>hoje: Ningde, 宁德, Ning-té,Ningte</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Kiangnan</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Fengyang</t>
+          <t>Funing</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Wuho</t>
+          <t>Showning</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Q1334665</t>
+          <t>Q1149660</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>.Wuhe, 五河</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Cheou-ning, hoje:Shouning, 寿宁, </t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Kiangnan</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Hwaian</t>
+          <t>Hinghwa</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Hwaian</t>
+          <t>Hinghwa</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Q57818</t>
+          <t>Q17498990</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Huai'an, </t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>1644</v>
+          <t>Hing-hoa,Hsinghua, hoje:Xinghua, 兴化, , 兴化县，the wikidata code of it does not contain coordinate information, which can be substituted by Q68579，the present-day Putian 莆田</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Kiangnan</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Soochow</t>
+          <t>Hinghwa</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Soochow</t>
+          <t>Putien</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Q57719</t>
+          <t>Q17031936</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xuzhou, 徐州</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">P'ou-t'ien, hoje:Putian, 莆田, </t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Kiangnan</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Soochow</t>
+          <t>Hinghwa</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Changshu</t>
+          <t>Sienyu</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Q1015805</t>
+          <t>Q1337926</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Changshu (Cham xo), Changshu, </t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Sien-yeou, hoje:Xianyou, 仙游, </t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Kiangnan</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Soochow</t>
+          <t>Kienning</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Kunshan</t>
+          <t>Kienning</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Q46535130</t>
+          <t>Q639862</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>,Kunshan, 昆山</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Kienning (Kienow), Kien-yang, hoje:Jianyang, 建阳, </t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Kiangnan</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Süchow</t>
+          <t>Kienning</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Süchow</t>
+          <t>Kienyang</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Q42622</t>
+          <t>Q639862</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suzhou, </t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Kien-yang, hoje:Jianyang, 建阳, </t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Kiangnan</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Sungkiang</t>
+          <t>Kienning</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Sungkiang</t>
+          <t>Chungan</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Q11104671</t>
+          <t>Q94945</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Songjiang, </t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>1644</v>
+          <t>Tch'ong-ngan, hoje:Chong'an, 崇安, , Today the city's name changed to be Wuyishan 武夷山市, and the wikidata code is that of Wuyishan</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Kiangnan</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sungkiang</t>
+          <t>Shaowu</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Shaowu</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Q8686</t>
+          <t>Q1025451</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shanghai, </t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Chao-ou, hoje:Shaowu, 邵武, </t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Kiangnan</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Sungkiang</t>
+          <t>Shaowu</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Tsingpu</t>
+          <t>Kienning hien</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Q46536920</t>
+          <t>Q781559</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Qingpu, </t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Kien-ning,Chienning, hoje:Jianning Xian, 建宁县, </t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Kiangnan</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Taitsang</t>
+          <t>Shaowu</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Taitsang</t>
+          <t>Taining</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Q61985</t>
+          <t>Q1375194</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Taicang, 太仓</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">T'ai-ning, hoje:Taining, 泰宁, </t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Kiangnan</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Taitsang</t>
+          <t>Tingchow</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Kiating</t>
+          <t>Tingchow</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Q662101</t>
+          <t>Q7808213</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jiading, </t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">T'ing-tcheou, hoje:Tingzhou, 汀州, </t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Kiangnan</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Taitsang</t>
+          <t>Tingchow</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Tsungming</t>
+          <t>Ninghwa</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Q788812</t>
+          <t>Q1198091</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chongming, </t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Ning-hoa, hoje:Ninghua, 宁化, </t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Kiangnan</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Yangchow</t>
+          <t>Tingchow</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Yangchow</t>
+          <t>Tsingliu</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Q57906</t>
+          <t>Q1198324</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yangzhou, </t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Tsing-lowou,Chingliu, hoje:Qingliu, 清流, </t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Kiangsi</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr"/>
+          <t>Fukien</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Yenping</t>
+        </is>
+      </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Kiangsi</t>
+          <t>Yenping</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Q57052</t>
+          <t>Q1337959</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jiangxi, </t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Yen-p'ing, hoje:Yanping, 延平, </t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Kiangsi</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Nanchang</t>
+          <t>Yenping</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Nanchang</t>
+          <t>Shahsien</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Q171943</t>
+          <t>Q1198385</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nanchang, </t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>1644</v>
+          <t>hoje: Shaxian, 沙县 Cha</t>
+        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Kiangsi</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Fuchow</t>
+          <t>Taiwan</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Fuchow</t>
+          <t>Taiwan</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Q363391</t>
+          <t>Q22502</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>, Fuzhou, 抚州</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>1644</v>
+          <t>hoje:Taiwan, 台湾, Formose (Taiwan), Formosa</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Kiangsi</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Jaochow</t>
+          <t>Taiwan</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Jaochow</t>
+          <t>Kilung</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Q1356313</t>
+          <t>Q249996</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Raozhou, 饶州,present day Poyang County</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Ki-long, Jilong, hoje:Keelung, 基隆, </t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Kiangsi</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Kanchow</t>
+          <t>Taiwan</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Kanchow</t>
+          <t>Tamsui</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Q363166</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ganzhou (赣州) in Jiangxi </t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>1644</v>
-      </c>
+          <t>Q570509</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Kiangsi</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Kanchow</t>
+          <t>Taiwan</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Ningtu</t>
+          <t>Taparri</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Q1356516</t>
+          <t>No wikidata</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>,Ningdu, 宁都</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>1644</v>
+          <t>hoje：大包里</t>
+        </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Kiangsi</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Kanchow</t>
+          <t>Taiwan</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Sinfeng</t>
+          <t>Camarri</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Q1356667</t>
+          <t>No wikidata</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>, Xinfeng,信丰</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>1644</v>
+          <t>hoje:Jinbaoli, 金包里, in the Chinese translation it is recognized as “噶玛兰”, but in Dehergne(1957) it is noted as "金包里". It is an area in the Northern Taiwan. coordinate: 25.22189808588497N, 121.6382892794898EQuimauri</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Kiangsi</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Kian</t>
+          <t>Taiwan</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Kian</t>
+          <t>Santiago</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Q363262</t>
+          <t>Q31106</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>,Ji'an,吉安</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>1644</v>
+          <t>hoje:Cape Santiago, 三貂角, Kakinauan, Samitiao</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Kiangsi</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Kian</t>
-        </is>
-      </c>
+          <t>Honan</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Tingnan</t>
+          <t>Honan</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Q1226461</t>
+          <t>Q43684</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>, Dingnan, 定南</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">hoje:Henan, 河南, </t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Kiangsi</t>
+          <t>Honan</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Kienchang</t>
+          <t>Kaifeng</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Kienchang</t>
+          <t>Kaifeng</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Q11065388</t>
+          <t>Q208471</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jianchang, </t>
-        </is>
-      </c>
-      <c r="F71" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Kaifeng (Pienleang) «chrétiens de la Croix» (D'Elu II 319 sq) v. 1550., chrétienté v. 1623, K'ai-fong, hoje:Kaifeng, 开封, </t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Kiangsi</t>
+          <t>Honan</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Kienchang</t>
+          <t>Kaifeng</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Nanfeng</t>
+          <t>Yüanwu</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Q1356725</t>
+          <t>Q10911308</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nanfeng, </t>
-        </is>
-      </c>
-      <c r="F72" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Yuen-ou, hoje:Yuanwu, 原武, </t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Kiangsi</t>
+          <t>Honan</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Kiukiang</t>
+          <t>Kweiteh</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Kiukiang</t>
+          <t>Kweiteh</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Q216077</t>
+          <t>Q404817</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>,Jiujiang, 九江</t>
-        </is>
-      </c>
-      <c r="F73" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Koei-té,Kueite, hoje: Guide, 归德, </t>
+        </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Kiangsi</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Kwangsin</t>
-        </is>
-      </c>
+          <t>Hukwang</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Kwangsin</t>
+          <t>Hukwang</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Q6807877</t>
+          <t>Q2235155</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Guangxin, 广信</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Huguang?, Hou-Quang, hoje:Huguang,湖广, </t>
+        </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Kiangsi</t>
+          <t>Hukwang</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Kwangsin</t>
+          <t>Wuchang</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Yushan</t>
+          <t>Wuchang</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Q1336063</t>
+          <t>Q1014420</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>,Yushan, 玉山</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">do Hupei?, Ou-tch'ang, hoje:Wuchang, 武昌, </t>
+        </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Kiangsi</t>
+          <t>Hukwang</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Nanan</t>
+          <t>Wuchang</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Nanan</t>
+          <t>Tungshan</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Q10907402</t>
+          <t>Q1356703</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nan'an, </t>
-        </is>
-      </c>
-      <c r="F76" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">T'ong-chan, hoje:Tongshan, 通山, </t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Kiangsi</t>
+          <t>Hukwang</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Nanan</t>
+          <t>Anlu</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Tankiang</t>
+          <t>Anlu</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>No wikidata</t>
+          <t>Q557934</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>No wikidata</t>
-        </is>
-      </c>
-      <c r="F77" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">do Hupei?, Ngan-lou, hoje:Anlu, 安陆, </t>
+        </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Kwangsi</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr"/>
+          <t>Hukwang</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Anlu</t>
+        </is>
+      </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Kwangsi</t>
+          <t>Kingmen</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Q15176</t>
+          <t>Q71323</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Guangxi, </t>
-        </is>
-      </c>
-      <c r="F78" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Kingmen, King-men,Chingmen, hoje:Jingmen, 荆门, </t>
+        </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Kwangsi</t>
+          <t>Hukwang</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Kweilin</t>
+          <t>Hwangchow</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Kweilin</t>
+          <t>Hwangchow</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Q189633</t>
+          <t>Q927929</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Guilin, </t>
-        </is>
-      </c>
-      <c r="F79" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">do Hupei?, Hoang-tcheou, hoje:Huangzhou, 黄州, </t>
+        </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Kwangsi</t>
+          <t>Hukwang</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Wuchow</t>
+          <t>Hwangchow</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Wuchow</t>
+          <t>Kichow</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Q571652</t>
+          <t>Q71323</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wuzhou, </t>
-        </is>
-      </c>
-      <c r="F80" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Kichow (Kichun), King-men,Chingmen, hoje:Jingmen, 荆门, </t>
+        </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Kwangtung</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr"/>
+          <t>Hukwang</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Kingchow</t>
+        </is>
+      </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Kwangtung</t>
+          <t>Kingchow</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Q15175</t>
+          <t>Q14135188</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Guangdong, </t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">do Hupei?, K'i-tcheou,Chichou, hoje: Qizhou, 蕲州, </t>
+        </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Kwangtung</t>
+          <t>Hukwang</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Cantão</t>
+          <t>Kingchow</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Cantão</t>
+          <t>Kungan</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Q16572</t>
+          <t>Q1198857</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>,Guangzhou, 广州Canton</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Kong-ngan, hoje:Gong'an, 公安, </t>
+        </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Kwangtung</t>
+          <t>Hukwang</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Cantão</t>
+          <t>Kingchow</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Fatshan</t>
+          <t>Meng kia k'i</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Q34412</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>,Foshan, 佛山</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
-        <v>1644</v>
-      </c>
+          <t>No wikidata</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Kwangtung</t>
+          <t>Hukwang</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Cantão</t>
+          <t>Kingchow</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Sunwui</t>
+          <t>Shihshow</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>No wikidata</t>
+          <t>Q1359319</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>wikidata:Q1023903,Xinhui, 新会</t>
-        </is>
-      </c>
-      <c r="F84" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Che-cheou, hoje:Shishou, 石首, </t>
+        </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Kwangtung</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Cantão</t>
-        </is>
-      </c>
+          <t>Hunan</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Tungkun</t>
+          <t>Hunan</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Q59218</t>
+          <t>Q45761</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dongguan, </t>
-        </is>
-      </c>
-      <c r="F85" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Hou-nan, hoje:Hunan, 湖南, </t>
+        </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Kwangtung</t>
+          <t>Hunan</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Kiungchow</t>
+          <t>Yungchow</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Kiungchow</t>
+          <t>Yungchow</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Q1081204</t>
+          <t>Q266014</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kiungchow (île de Hainan), Qiongzhou, </t>
-        </is>
-      </c>
-      <c r="F86" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">do Hunan?, Yong-tcheou, hoje:Yongzhou, 永州, </t>
+        </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Kwangtung</t>
+          <t>Hunan</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Limchow</t>
+          <t>Yungchow</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Limchow</t>
+          <t>Kiyang</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Q1268277</t>
+          <t>Q1199641</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>, Lianzhou, 廉州 present day Hepu County</t>
-        </is>
-      </c>
-      <c r="F87" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">K'i-yang,Chiyang, hoje:Qiyang, 祁阳, </t>
+        </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Kwangtung</t>
+          <t>Hunan</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Luichow</t>
+          <t>Yungchow</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Luichow</t>
+          <t>Paishui</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Q1209167</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leizhou, </t>
-        </is>
-      </c>
-      <c r="F88" t="n">
-        <v>1644</v>
-      </c>
+          <t>No wikidata</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Kwangtung</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Namyung</t>
-        </is>
-      </c>
+          <t>Kiangnan</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Namyung</t>
+          <t>Kiangnan</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Q934465</t>
+          <t>Q11133842</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nanxiong, </t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>1644</v>
+          <t>Jiangnan?hoje:Jiangnan, 江南, , former province of China, corresponding to modern-day Jiangsu and Anhui provincesKIANGNAN ou NANKING</t>
+        </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Kwangtung</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Namyung</t>
-        </is>
-      </c>
+          <t>Anhwei</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Shihing</t>
+          <t>Anhwei</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Q1346567</t>
+          <t>Q40956</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shixing, 始兴</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Anhui, Ngon-hoei, hoje:Anhui, 安徽, </t>
+        </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Kwangtung</t>
+          <t>Anhwei</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Namyung</t>
+          <t>Chuchow</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Shuntak</t>
+          <t>Chuchow</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Q15931716</t>
+          <t>Q114045</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>,Shuntak (Xunte Shunde, 顺德Shuntak (Xunte)</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Chuchow, hoje:Chuzhou, 滁州, </t>
+        </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Kwangtung</t>
+          <t>Anhwei</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Schiuchow</t>
+          <t>Hweichow</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Schiuchow</t>
+          <t>Hweichow</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>No wikidata</t>
+          <t>Q4358404</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>No wikidataShiuhow (Xao cheu)</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Hoei-tcheou, hoje:Huizhou, 徽州, </t>
+        </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Kwangtung</t>
+          <t>Anhwei</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Schiuchow</t>
+          <t>Hweichow</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Lokchong</t>
+          <t>Wuyan hien</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Q2012479</t>
+          <t>Q1357710</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>,Lecong, 乐从</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
-        <v>1644</v>
+          <t>Ou-yuen, hoje:Wuyuan Xian, 婺源县, , Wuyuan historically was in Anhui province, but now it is in the present-day Jiangxi province</t>
+        </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Kwangtung</t>
+          <t>Anhwei</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Schiuchow</t>
+          <t>Hweichow</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Yanfa</t>
+          <t>Tungmen</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3214,1385 +2917,1248 @@
           <t>No wikidata</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>No wikidataYanfa -- Gin hoa</t>
-        </is>
-      </c>
-      <c r="F94" t="n">
-        <v>1644</v>
-      </c>
+      <c r="E94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Kwangtung</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Shiuhing</t>
-        </is>
-      </c>
+          <t>Kiangsu</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Shiuhing</t>
+          <t>Kiangsu</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Q59164</t>
+          <t>Q16963</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chao Kim, Zhaoqing, </t>
-        </is>
-      </c>
-      <c r="F95" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Jiangju, hoje: Jiangsu, 江苏, </t>
+        </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Kwangtung</t>
+          <t>Kiangsu</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Waichow</t>
+          <t>Nanking</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Waichow</t>
+          <t>Nanking</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Q59173</t>
+          <t>Q16666</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>,Huizhou,惠州Waichow, Hwaichow (Hoei cheu), Guizhou,</t>
-        </is>
-      </c>
-      <c r="F96" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Nanjing, Nan-king,Nanching, hoje: Nanjing, 南京, </t>
+        </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Kwangtung</t>
+          <t>Kiangsu</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Nanking</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Siaolingwei</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>No wikidata</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="n">
-        <v>1644</v>
+          <t>Q8044278</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hiao-ling-wei,Hsiaolingwei, hoje: Xiaolingwei, 孝陵卫, </t>
+        </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Kwangtung</t>
+          <t>Kiangsu</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Nanking</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Ilha Verde</t>
+          <t>Kaowang</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Q3319473</t>
+          <t>Q13721719</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ilha Verde, </t>
-        </is>
-      </c>
-      <c r="F98" t="n">
-        <v>1644</v>
+          <t>hoje: Gaowang, 高旺, , in the Chinese translation, it is written as “高望”, which should be “高旺”.</t>
+        </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Kwangtung</t>
+          <t>Kiangsu</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Nanking</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Lapa</t>
+          <t>Lungtan</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Q14342082</t>
+          <t>Q31853195</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lapa (Wan-tchai),Wanzai, </t>
-        </is>
-      </c>
-      <c r="F99" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">hoje:Longtan, 龙潭, </t>
+        </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Kweichow</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr"/>
+          <t>Kiangsu</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Changchow</t>
+        </is>
+      </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Kweichow</t>
+          <t>Changchow</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Q47097</t>
+          <t>Q57970</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t xml:space="preserve">KWEICHOW (actuel GUIZHOU): néant Guizhou, </t>
-        </is>
-      </c>
-      <c r="F100" t="n">
-        <v>1644</v>
+          <t>hoje:Changzhou, 常州, Changchow (Wutsin)</t>
+        </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Pequim</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr"/>
+          <t>Kiangsu</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Changchow</t>
+        </is>
+      </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Pequim</t>
+          <t>Ihing</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Q956</t>
+          <t>Q1015788</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>PEKING (actuel HEBEI)</t>
-        </is>
-      </c>
-      <c r="F101" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">I-hing,Ihsing, hoje:Yixing, 宜兴, </t>
+        </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Pequim</t>
+          <t>Kiangsu</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Pequim</t>
+          <t>Changchow</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Pequim</t>
+          <t>Tsinkiang</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Q956</t>
+          <t>Q428587</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pékin collège St Joseph (1605) ou Si-t'ang (sera appelé Nan-t'ang en 1723, à cause du Si-t'ang fondé pour la Propagande, R), Beijing, </t>
-        </is>
-      </c>
-      <c r="F102" t="n">
-        <v>1644</v>
+          <t>Chingchiang, hoje:Jingjiang, 靖江, , In the original book (Dehergne, 1973), it is written as "Tsinkiang" (without g), which is wrongly spelled, because from both phonetic and geographical points of view, it should be Tsingkiang 靖江. In Dehergne(1973), it is written as Tsingjiang. And in the Chinese translation, it is also recognized as "靖江".</t>
+        </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Pequim</t>
+          <t>Kiangsu</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Pequim</t>
+          <t>Changchow</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Si-t'ang</t>
+          <t>Wusih</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Q2601521</t>
+          <t>Q42651</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 西堂Si-t'ang fondé pour la Propagande, R [em 1703])</t>
-        </is>
-      </c>
-      <c r="F103" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Ou-si,Wuhsi, hoje:Wuxi, 无锡, </t>
+        </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Pequim</t>
+          <t>Kiangsu</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Pequim</t>
+          <t>Changchow</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Tong-t'ang</t>
+          <t>Wutsin</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Q1064185</t>
+          <t>No wikidata</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 东堂Tong-t'ang ou R Saint-Joseph (1655)</t>
-        </is>
-      </c>
-      <c r="F104" t="n">
-        <v>1644</v>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Pequim</t>
+          <t>Kiangsu</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Pequim</t>
+          <t>Chinkiang</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Pei-t'ang</t>
+          <t>Chinkiang</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Q2032749</t>
+          <t>Q57958</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 北堂</t>
-        </is>
-      </c>
-      <c r="F105" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Tchen-kiang,Chenchiang, hoje:Zhenjiang, 镇江, </t>
+        </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Pequim</t>
+          <t>Kiangsu</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Pequim</t>
+          <t>Chinkiang</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Liangsiang</t>
+          <t>Tanyang</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Q4392206</t>
+          <t>Q925293</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Liangxiang, 良乡</t>
-        </is>
-      </c>
-      <c r="F106" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Tan-yang, hoje:Danyang, 丹阳, </t>
+        </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Pequim</t>
+          <t>Kiangsu</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Pequim</t>
+          <t>Hwaian</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Tungchow</t>
+          <t>Hwaian</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Q393836</t>
+          <t>Q57818</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tongzhou, </t>
-        </is>
-      </c>
-      <c r="F107" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Hoai-ngan, hoje:Huai'an, 淮安, </t>
+        </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Pequim</t>
+          <t>Kiangsu</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Chengting</t>
+          <t>Soochow</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Chengting</t>
+          <t>Soochow</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Q197678</t>
+          <t>Q42622</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zhengding, </t>
-        </is>
-      </c>
-      <c r="F108" t="n">
-        <v>1644</v>
+          <t>Sou-tcheou, Suchou, hoje:Suzhou, 苏州, Soochow (Wuhsien)</t>
+        </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Pequim</t>
+          <t>Kiangsu</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Paoting</t>
+          <t>Soochow</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Paoting</t>
+          <t>Changshu</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Q58584</t>
+          <t>Q113497198</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Baoding, </t>
-        </is>
-      </c>
-      <c r="F109" t="n">
-        <v>1644</v>
+          <t>hoje:Wuxian, 吴县, , fomer city in Jiangsu</t>
+        </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Shansi</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr"/>
+          <t>Kiangsu</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Soochow</t>
+        </is>
+      </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Shansi</t>
+          <t>Kiating</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Q46913</t>
+          <t>Q662101</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shanxi, </t>
-        </is>
-      </c>
-      <c r="F110" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Kia-ting,Chiating, hoje:Jiading, 嘉定, </t>
+        </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Shansi</t>
+          <t>Kiangsu</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Taiyuan</t>
+          <t>Soochow</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Taiyuan</t>
+          <t>Tsungming</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Q72778</t>
+          <t>Q788812</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Taiyuan, </t>
-        </is>
-      </c>
-      <c r="F111" t="n">
-        <v>1644</v>
+          <t>Tch'ong-ming,Chungming, hoje: Chongming, 崇明, Tsungming (île)</t>
+        </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Shansi</t>
+          <t>Kiangsu</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Fenchow</t>
+          <t>Sungkiang</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Fenchow</t>
+          <t>Sungkiang</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Q15939727</t>
+          <t>Q11104671</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>,Fenzhou, 汾州</t>
-        </is>
-      </c>
-      <c r="F112" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Song-kiang,Sungching, hoje: Songjiang, 松江, </t>
+        </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Shansi</t>
+          <t>Kiangsu</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Fenchow</t>
+          <t>Sungkiang</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Pingyao</t>
+          <t>Kaokia</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Q500061</t>
+          <t>No wikidata</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>, 平遥Pingyao du Fenchow</t>
-        </is>
-      </c>
-      <c r="F113" t="n">
-        <v>1644</v>
+          <t>hoje: Gaojia, 高家, in the Chinese translation it is recognized as “高家岗”, which actually is not in that area. It should be “高家”. Dehergne(1957, p60) said "'Cao kia' près de Cié pao (=Tsipao) est citée dans l'annuelle de 1643 (JS 122 185). Il y a un 高家 plus près de Sungkiang, à l'est."</t>
+        </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Shansi</t>
+          <t>Kiangsu</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Fenchow</t>
+          <t>Sungkiang</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Kiehsiu</t>
+          <t>Mo ka pang</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Q1362530</t>
+          <t>No wikidata</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jiexiu, 介休Kiehsiu du Fenchow</t>
-        </is>
-      </c>
-      <c r="F114" t="n">
-        <v>1644</v>
+          <t>Ma kia pim, hoje: Majiabang, 马家浜, in the Chinese translation it is recognized as “穆喀榜”, which is wrong. Dehergne(1957, p60) said it is "马家滨" at "sud de Sung-kiang". In the present day it might be "马家浜" to the south Songjiang. coordinate: 30.845691234919308N, 121.3179093082612E</t>
+        </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Shansi</t>
+          <t>Kiangsu</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Pingyang</t>
+          <t>Sungkiang</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Pingyang</t>
+          <t>Chwansha</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Q15905472</t>
+          <t>Q11055382</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Pingyang Fu, , Q73156</t>
-        </is>
-      </c>
-      <c r="F115" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Tch'oan-cha, hoje:Chuansha, 川沙, </t>
+        </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Shansi</t>
+          <t>Kiangsu</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Pingyang</t>
+          <t>Sungkiang</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Kiangchow</t>
+          <t>Fenghsien</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Q1197219</t>
+          <t>Q662694</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jiangzhou, </t>
-        </is>
-      </c>
-      <c r="F116" t="n">
-        <v>1644</v>
+          <t>Fong-hien,Fenghsien, hoje:Fengxian, 奉贤, Fenghsien (Vongtsié)</t>
+        </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Shansi</t>
+          <t>Kiangsu</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Pingyang</t>
+          <t>Sungkiang</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Puchow</t>
+          <t>Kinshan</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Q14105968</t>
+          <t>Q662241</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Puzhou, </t>
-        </is>
-      </c>
-      <c r="F117" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Kin-chan,Chinshan, hoje: Jinshan, 金山, </t>
+        </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Shansi</t>
+          <t>Kiangsu</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Pingyang</t>
+          <t>Sungkiang</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Hungtung</t>
+          <t>Chuking</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Q1197616</t>
+          <t>Q11094342</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 洪洞</t>
-        </is>
-      </c>
-      <c r="F118" t="n">
-        <v>1644</v>
+          <t>Tchou-king,Chuching, hoje:Zhujing, 朱泾, , in the Chinese traslation it is written as “诸泾”, which should be “朱泾”</t>
+        </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Shansi</t>
+          <t>Kiangsu</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Pingyang</t>
+          <t>Sungkiang</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Kiehsiu</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Q1362530</t>
+          <t>Q8686</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jiexiu, 介休</t>
-        </is>
-      </c>
-      <c r="F119" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Chang-hai, hoje: Shanghai, 上海, </t>
+        </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Shansi</t>
+          <t>Kiangsu</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Pingyang</t>
+          <t>Sungkiang</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Siangling</t>
+          <t>Tsingpu</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Q22099543</t>
+          <t>Q46536920</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xiangling 襄陵县，the wikidata code of it dose not contain coordination information, which can be substituted by Q1197358，present day Xiangfen County 襄汾县</t>
-        </is>
-      </c>
-      <c r="F120" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Ts'ing-p'ou,Chingpu, hoje: Qingpu, 青浦, </t>
+        </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Shansi</t>
+          <t>Kiangsu</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Pingyang</t>
+          <t>Sungkiang</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Taiping</t>
+          <t>Tsipao</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Q18111423</t>
+          <t>Q1875153</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Taiping, ,太平县，the wikidata code of it dose not contain coordinate information, which can be substituted by Q11137509，the present-day 汾城镇</t>
-        </is>
-      </c>
-      <c r="F121" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Tsi-pao,Chipao, hoje: Qibao, 七宝, </t>
+        </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Shansi</t>
+          <t>Kiangsu</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Pingyang</t>
+          <t>Yangchow</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Wanchuan</t>
+          <t>Yangchow</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Q8475332</t>
+          <t>Q57906</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 万泉县，the wikidata code of it dose not contain coordinate information, which can be substituted by Q1196908，the present-day万荣县</t>
-        </is>
-      </c>
-      <c r="F122" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Yang-tcheou, hoje: Yangzhou, 扬州, </t>
+        </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Shansi</t>
+          <t>Kiangsu</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Sinchow</t>
+          <t>Yangchow</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Sinchow</t>
+          <t>Kaoyu</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Q73119</t>
+          <t>Q1253949</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>,Xinzhou, 忻州</t>
-        </is>
-      </c>
-      <c r="F123" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Kao-yeou, hoje: Gaoyou, 高邮, </t>
+        </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Shansi</t>
+          <t>Kiangsu</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Sinchow</t>
+          <t>Yangchow</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Tsinglo</t>
+          <t>Paoshan</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Q174034</t>
+          <t>Q661828</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>,Jingle, 静乐</t>
-        </is>
-      </c>
-      <c r="F124" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Pao-chan, hoje: Baoshan, 宝山, </t>
+        </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Shantung</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr"/>
+          <t>Kiangsu</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Yangchow</t>
+        </is>
+      </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Shantung</t>
+          <t>Fushan</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Q43407</t>
+          <t>No wikidata</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t xml:space="preserve">actuel Shandong, Shandong, </t>
-        </is>
-      </c>
-      <c r="F125" t="n">
-        <v>1644</v>
+          <t>hoje: Fushan, 福山村, 31.800210981845982N, 120.7617947082488E</t>
+        </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Shantung</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Tsinan</t>
-        </is>
-      </c>
+          <t>Kiangsi</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Tsinan</t>
+          <t>Kiangsi</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Q170247</t>
+          <t>Q57052</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jinan, </t>
-        </is>
-      </c>
-      <c r="F126" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Jiangxi, Kiang-si, hoje: Jiangxi, 江西, </t>
+        </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Shantung</t>
+          <t>Kiangsi</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Tsinan</t>
+          <t>Nanchang</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Taian</t>
+          <t>Nanchang</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Q217681</t>
+          <t>Q171943</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tai'an, </t>
-        </is>
-      </c>
-      <c r="F127" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Nan-tch'ang, hoje:Nanchang, 南昌, </t>
+        </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Shantung</t>
+          <t>Kiangsi</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Tsinan</t>
+          <t>Kienchang</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Tehchow</t>
+          <t>Kienchang</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Q162880</t>
+          <t>Q11065388</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>,Dezhou,德州</t>
-        </is>
-      </c>
-      <c r="F128" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Kien-tch'ang,Chienchang, hoje:Jianchang, 建昌, </t>
+        </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Shantung</t>
+          <t>Kiangsi</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Tsingchow</t>
+          <t>Nanan</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Tsingchow</t>
+          <t>Nanan</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Q1360781</t>
+          <t>Q10907402</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t xml:space="preserve">(-- Idu, Yitu)Qingzhou, , Yidu, </t>
-        </is>
-      </c>
-      <c r="F129" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Nan-ngan, hoje: Nan'an, 南安, </t>
+        </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Shantung</t>
+          <t>Kiangsi</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Linchu</t>
+          <t>Nanan</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Linchu</t>
+          <t>Nancheng</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Q1198208</t>
+          <t>Q521512</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>,Linkiu, 临朐</t>
-        </is>
-      </c>
-      <c r="F130" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Nan-tch'eng, hoje:Nancheng, 南城, </t>
+        </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Shantung</t>
+          <t>Kiangsi</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Tungchang</t>
+          <t>Nanan</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Tungchang</t>
+          <t>Nanfeng</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Q10870440</t>
+          <t>Q1356725</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dungchang, </t>
-        </is>
-      </c>
-      <c r="F131" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Nan-fong, hoje: Nanfeng, 南丰, </t>
+        </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Shantung</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Tungchang</t>
-        </is>
-      </c>
+          <t>Kwangsi</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Lintsing</t>
+          <t>Kwangsi</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>No wikidata</t>
+          <t>Q15176</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>wikidata:Q1207099.Linqing, 临清</t>
-        </is>
-      </c>
-      <c r="F132" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Guangxi, Koang-si, hoje: Guangxi, 广西, </t>
+        </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Shantung</t>
+          <t>Kwangsi</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Yenchow</t>
+          <t>Kweilin</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Yenchow</t>
+          <t>Kweilin</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Q10891140</t>
+          <t>Q189633</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yanzhou, 兖州</t>
-        </is>
-      </c>
-      <c r="F133" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Koei-lin, hoje: Guilin, 桂林, </t>
+        </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Shantung</t>
+          <t>Kwangsi</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Yenchow</t>
+          <t>Wuchow</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Ichow</t>
+          <t>Wuchow</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Q11552388</t>
+          <t>Q571652</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Ichow ( -- Lini)</t>
-        </is>
-      </c>
-      <c r="F134" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Ou-tcheou, hoje: Wuzhou, 梧州, </t>
+        </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Shantung</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Yenchow</t>
-        </is>
-      </c>
+          <t>Kwangtung</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Tsining</t>
+          <t>Kwangtung</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Q372791</t>
+          <t>Q15175</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>,Jining, 济宁</t>
-        </is>
-      </c>
-      <c r="F135" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Guangdong, hoje:Guangdong, 广东, </t>
+        </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Shensi</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr"/>
+          <t>Kwangtung</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Macau</t>
+        </is>
+      </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Shensi</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Q46913</t>
+          <t>Q14773</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>(actuel SHANXI)Shanxi,  Shaanxi 陕西</t>
-        </is>
-      </c>
-      <c r="F136" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Macau, hoje: Macao, 澳门, </t>
+        </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Shensi</t>
+          <t>Kwangtung</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Sian</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Sian</t>
+          <t>Tsingchow</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Q5826</t>
+          <t>Q3319473</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t xml:space="preserve">Xi'an, </t>
-        </is>
-      </c>
-      <c r="F137" t="n">
-        <v>1644</v>
+          <t>Tsingchow,Ts'ing-tcheou, hoje: Ilha Verde, 青州, Ilha Verde (Tsingchow)</t>
+        </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Shensi</t>
+          <t>Kwangtung</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Sian</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Sanyuan</t>
+          <t>Wantchai</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Q1201362</t>
+          <t>Q14342082</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sanyuan, </t>
-        </is>
-      </c>
-      <c r="F138" t="n">
-        <v>1644</v>
+          <t>Lapa,Wantchai, hoje: Wanzai, 湾仔, Lappa (Wantchai)</t>
+        </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Shensi</t>
+          <t>Kwangtung</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Hanchung</t>
+          <t>Cantão</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Hanchung</t>
+          <t>Cantão</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Q515573</t>
+          <t>Q16572</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hanzhong, </t>
-        </is>
-      </c>
-      <c r="F139" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Koang-tcheou, hoje:Guangzhou, 广州, </t>
+        </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Shensi</t>
+          <t>Kwangtung</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Chengku</t>
+          <t>Cantão</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Chengku</t>
+          <t>Tungkun</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Q1069968</t>
+          <t>Q59218</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chenggu, </t>
-        </is>
-      </c>
-      <c r="F140" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Tong-koan,Tungkuan, hoje:Dongguan, 东莞, </t>
+        </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Shensi</t>
+          <t>Kwangtung</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Chengku</t>
+          <t>Cantão</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Siao-tchai</t>
+          <t>Quon yao</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4602,149 +4168,1989 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>No wikidataSiao-tchai du Chengku</t>
-        </is>
-      </c>
-      <c r="F141" t="n">
-        <v>1644</v>
+          <t>hoje: Guanyao, 官窑, In the Chinses translation it is recognized as “高要村”，which is wrong. in Dehergne(1957), it is noted as "官窑". coordinate: 23.314954073028765N, 113.22132587290358E</t>
+        </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Szechwan</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr"/>
+          <t>Kwangtung</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Cantão</t>
+        </is>
+      </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Szechwan</t>
+          <t>Lampacao</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Q19770</t>
+          <t>Q6482357</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t xml:space="preserve">actuel SICHUAN)Sichuan, </t>
-        </is>
-      </c>
-      <c r="F142" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Lampacau,Lampacão, hoje: 浪白滘, 浪白澳, </t>
+        </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Szechwan</t>
+          <t>Kwangtung</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Chengtu</t>
+          <t>Kiungchow</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Chengtu</t>
+          <t>Kiungchow</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Q30002</t>
+          <t>Q1081204</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chengdu, </t>
-        </is>
-      </c>
-      <c r="F143" t="n">
-        <v>1644</v>
+          <t>K'iong-tcheou,Chiungchou, hoje: Qiongzhou, 琼州, Kiungchow (île de Hainan)</t>
+        </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Szechwan</t>
+          <t>Kwangtung</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Chungking</t>
+          <t>Kiungchow</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Chungking</t>
+          <t>Tingan</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Q11725</t>
+          <t>Q1022249</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chongqing, </t>
-        </is>
-      </c>
-      <c r="F144" t="n">
-        <v>1644</v>
+          <t xml:space="preserve">Ting-ngan, hoje: Ding'an, 定安, </t>
+        </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Yunnan</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr"/>
+          <t>Kwangtung</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Kiungchow</t>
+        </is>
+      </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Yunnan</t>
+          <t>Bankao</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Q43194</t>
+          <t>No wikidata</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yunnan, </t>
-        </is>
-      </c>
-      <c r="F145" t="n">
-        <v>1644</v>
+          <t>hoje:Xiangou, 仙沟, In the Chinese translation it is recognized as "板桥", but in Dehergne (1957), it is noted as "仙沟". Coordinate: 19.678430033709233N, 110.3760945797476E</t>
+        </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
+          <t>Kwangtung</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Kiungchow</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Lungmo</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Q11181853</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Lummo, hoje: Longmen, 龙门, , in the Chinese translation it is written as “龙末”, but but in Dehergne (1957), it is noted as "龙门"</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Kwangtung</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Luichow</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Luichow</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Q1209167</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lei-tcheou, hoje: Leizhou, 雷州, </t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Kwangtung</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Namyung</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Namyung</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Q934465</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Nan-hiong, hoje: Nanxiong, 南雄, Namyung (alors fou)</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Kwangtung</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Schiuchow</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Schiuchow</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Q1346617</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Chao-tcheou, hoje: Shaozhou, 韶州, , historical administrative division. The Wikidata code is of its administrative center Qujiang 曲江, which is in the present-day City of Shaoguan 韶关.Shiuchow (Chao-tcheou)</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Kwangtung</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Schiuchow</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Makia</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>No wikidata</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Machia, hoje: Majia, 马家, Dehergne(1957) said Makia"马家" is "à 15 kilomètres au sud de la ville" (de Shiuchow), which should be to the south of Shiuchow, but I only found one "马家" in that area, but it is to the west of the city (24.75569541392557, 113.15960996554436), which might not be the right place.</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Kwangtung</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Schiuchow</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Tsintsun</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>No wikidata</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Cinçun, hoje: Jingcun, 靖村, coordinate:24.840448198893206N, 113.54394322209676E. In the original book (Dehergne, 1973), it is written as "Tsintsun" (without g), which is wrongly spelled. In Dehergne(1973), it is written as Tsingtsun, with the Chinese name 靖村 noted. It is "à une heure et demie de marche au nord-ouest de Siuchow." In the Chinese traslation, it is recognized as "青村", which is wrong.</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Kwangtung</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Schiuchow</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Hwangtsun</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>No wikidata</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Vançun, hoje: Huangcun, 黄村, coordinate: 24.900778941203768N, 113.60398607001083E Dehergne(1957): "à une heure de chemin au nord de Shiuchow".</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Kwangtung</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Schiuchow</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Hwanghsiaping</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>No wikidata</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Hwanghsiaping, hoje: Vankaxen, 黄下坪？, In the Chinese translation, it is recognized as "黄下坪". Dehergne(1957):"Hwanghsiaping (" Vankaxen ") à 15 li à l'ouest de Shiuchow." But it cannot be found in the map.</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Kwangtung</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Schiuchow</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Motikang</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>No wikidata</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Mochi, hoje: Madigang, 麻地岗, In the Chinese translation, it is recognized as “末岗”, but in Dehergne(1957), it is noted as “麻地岗”. coordinate: 24.68899887552694N, 113.57599418283718E</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Kwangtung</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Schiuchow</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Yangsiang</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>No wikidata</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Yang-hiang, hoje: 杨姓村</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Kwangtung</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Shiuhing</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Shiuhing</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Q59164</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Tchao-k'ing, Chaoching, hoje: Zhaoqing, 肇庆, Shiuhing (Tchao-k'ing, actuel Hoyiu)</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Kwichow</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Kwichow</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Q47097</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Koei-Tcheou, hoje: Guizhou, 贵州, </t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Pequim</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Pequim</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Q956</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Pequim</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Pequim,</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Pequim,</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Q956</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>hoje: 北京, Peking (Shuntien) (1598), 1601</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Pequim</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Pequim,</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Chala</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Q4578286</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Chala (cimetière et chapelle)</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Pequim</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Pequim,</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Tacheng</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Q1156678</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ta-tch'eng,hoje: Dacheng, 大城县. </t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Pequim</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Pequim,</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Tientsin</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Q11736</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>T'ien-tsin,Tienchin, hoje: Tianjin, 天津, Tientsin</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Pequim</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Pequim,</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Tungchow</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Q393836</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>T'ong-tcheou, hoje: Tongzhou, 通州, ?</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Pequim</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Chengting</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Chengting</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Q197678</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tcheng-ting, hoje: Zhengding, 正定, </t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Pequim</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Chengting</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Tingchow</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Q64518</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ting tcheou, hoje: Dingzhou, 定州, </t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Pequim</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Hokien</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Hokien</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Q1601618</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ho-kien, hoje: Hejian, 河间, </t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Pequim</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Hokien</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Ningtsin</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Q1197955</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ning-tsin,Ningchin, hoje: Ningjin, 宁津, </t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Pequim</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Hokien</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Wukiao</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Q474923</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ou-k'iao,Wuchiao,hoje: Wuqiao, 吴桥, </t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Pequim</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Paoting</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Paoting</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Q58584</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paoting (Tsingyüan), hoje: Baoding, 保定, </t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Pequim</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Paoting</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Kaoyang</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Q1196631</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kao-yang, hoje: Gaoyang, 高阳, </t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Pequim</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Paoting</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Shulu</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Q1015480</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Chou-lou, hoje: Shulu, 束鹿, , Now the city name is Xinji 辛集. Wikidata code is that of Xinji</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Shansi</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Shansi</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Q46913</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chan-si, hoje: Shanxi, 山西, </t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Shansi</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Taiyuan</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Taiyuan</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Q72778</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T'ai-yuen, hoje: Taiyuan, 太原, </t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Shansi</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Taiyuan</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Pingting</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Q1196978</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>P'ing-ting, hoje: Pingding, 平定州, , Now it is Pingding County 平定县Pingting tcheou</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Shansi</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Pingyang</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Pingyang</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Q15905472</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>P'ing-yang, hoje: Pingyang Fu, 平阳府, , Q73156, historical administrative division. Now it is in Linfen 临汾. Wikidatacoede also refer to that of Linfen: Q73156Pingyang (Linfen)</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Shansi</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Pingyang</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Kiangchow</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Q1197219</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Chiangchou, hoje: Jiangzhou, 绛州, , historical administrative division. Now it is Xinjiang 新绛. Wikidata code is that of 新绛</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Shansi</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Pingyang</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Kianghsien</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Q1197307</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Kiang hien, hoje: Jiangxian, 绛县, Kianghsien (au Sud de Kiangchow)</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Shansi</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Pingyang</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Kuwo</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Q1332080</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">K'iu-wo,Chüwu, Quwo, 曲沃, </t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Shansi</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Pingyang</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Puchow</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Q14105968</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>P'ou-tcheou, hoje: Puzhou, 蒲州, hoje: Q14105968, pas encore fou</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Shansi</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Pingyang</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Siahsien</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Q612136</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Hia hien, hoje: Xiaxian, 夏县, , Dehergne(1957) noted it as “夏县”. In the Chinese translation, it is recognized as "隰县",which is wrong.</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Shansi</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Pingyang</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Taiping</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Q18111423</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>hoje: Taiping, 太平, , Q1113750, historical administrative division. Now its administrative center is Fencheng 汾城, Wikidata also refer to that of Fencheng: Q1113750Taiping (Fencheng)</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Shansi</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Tsechow</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Tsechow</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Q1113750</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hoje: Fencheng, 汾城, </t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Shansi</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Tsechow</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Tsishan</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Q197104</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hoje: Zezhou, 泽州, </t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Shansi</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Tsechow</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Yungtsi</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Q473451</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tsi-chan,Chishan, hoje: Jishan, 稷山, </t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Shangtung</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Shangtung</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Q43407</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chan-tong, Shandong, 山东, </t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Shangtung</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Tsinan</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Tsinan</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Q170247</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tsi-nan, hoje: Jinan, 济南, </t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Shangtung</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Tsinan</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Taian</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Q217681</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>T'ai-ngan, hoje: Tai'an, 泰安, Taian tcheou</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Shangtung</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Tsinan</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Kwanchang</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>No wikidata</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Shangtung</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Tsinan</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Manchwang</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Q14782428</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Muon choam, hoje: Manzhuang, 满庄, </t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Shangtung</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Tsinan</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Tsiho</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Q1198234</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hoje: Qihe, 齐河, </t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Shangtung</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Tsinan</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Wuting</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Q17008118</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Ou-ting, hoje: Wuding, 武定, [Wuting, alors tcheou, Hweimin]</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Shangtung</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Tsinan</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Pinchow</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Q373687</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Shangtung</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Tsinan</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Yucheng</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Q373687</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pin-tcheou, hoje: Binzhou, 滨州, </t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Shangtung</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Tengchow</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Tengchow</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Q10428329</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Teng-tcheou, hoje: Dengzhou, 登州, Tengchow (Penglai)</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Shangtung</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Tsingchow</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Tsingchow</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Q1360781</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Ts'ing-tcheou, Chingchou, hoje: Qingzhou, 青州, Tsingchow (Yitu)</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Shangtung</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Tungchang</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Tungchang</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Q10870440</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tong-tch'ang, hoje: Dungchang, 东昌, </t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Shangtung</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Tungchang</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Peichingtien</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>No wikidata</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Dehergne(1957)did not give the Chinese name of Peichingtien.In the Chinese translation, it is recognized as “北辛店村”，but the pronunciation dose not match. In addition, the “北辛店村”of Shandong is far from Dongchang.</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Shangtung</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Tungchang</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Lintsing</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Q1207099</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Lin-ts'ing,Linching, hoje: Linqing, 临清, Lintsing tcheou</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Shensi</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Shensi</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Q47974</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Chen-si , hoje: Shaanxi @dehergne:399</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Shensi</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Sian</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Sian</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Q5826</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Hsian, hoje: Xi'an, 西安, Sun (Changan)</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Shensi</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Sian</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Chowchih</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Q198072</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>hoje: Zhouzhi, 周至, , In the Chinese translation, it is written as “盩厔”. Before 1964, 周至was written as “盩厔”.</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Shensi</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Sian</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Kaoling</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Q280060</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kao-ling, hoje: Gaoling, 高陵, </t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Shensi</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Sian</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Kiao-tou</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>No wikidata</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Kiao-tou (ou Tungyiianfang)</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Shensi</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Sian</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Hwachow</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Q727188</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">How-tcheou, hoje: Huazhou, 华州, </t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Shensi</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Sian</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Sanyuan</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Q1201362</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sanyuan, 三原, </t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Shensi</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Sian</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Shangchow</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Q1339355</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Changtcheou, hoje: Shangzhou, 商州, </t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Shensi</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Hanchung</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Hanchung</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Q727188</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>How-tcheou, hoje: Huazhou, 华州, Hanchung (Nancheng)</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Shensi</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Hanchung</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Chengku</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Q1069968</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tch'eng-kou, hoje: Chenggu, 城固, </t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Shensi</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Hanchung</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Siao tchai tse</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>No wikidata</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Shensi</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Hanchung</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Yanghsien</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Q1201504</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yang Hien, hoje: Yangxian, 洋县, </t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Szechwan</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr"/>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Szechwan</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Q19770</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Se-tch'oan, hoje: Sichuan, 四川, </t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Szechwan</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Chengtu</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Chengtu</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Q30002</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Tch'eng-tou, hoje: Chengdu, 成都, hoje: Chengtu (Hwayang)</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Szechwan</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Chengtu</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Mienchow</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Q10475921</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mien tcheou, hoje: Mianzhou, 绵州, hoje:  </t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Szechwan</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Chungking</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Chungking</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Q11725</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Tch'ong-K'ing,Chungching, hoje: Chongqing, 重庆, Chungking (Pahsien)</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Szechwan</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Paoning</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Paoning</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Q10887586</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Pao-ning, hoje: Baoning, 保宁, , Q1200170, 保宁府historical administrative division of China, where 阆中 was in, Wikidata code also refer to that of Langzhong: Q1200170Paoning (Langchung)</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
           <t>Yunnan</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Yunnanfu</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Yunnanfu</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>No wikidata</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="n">
-        <v>1644</v>
+      <c r="B216" t="inlineStr"/>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Q43194</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hoje: Yunnan, 云南, </t>
+        </is>
       </c>
     </row>
   </sheetData>
